--- a/dedup2/dedup2_SPBU.xlsx
+++ b/dedup2/dedup2_SPBU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K228"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Bantul/@-7.8056335,110.3636606,13z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.860971</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.860971</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.340546</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.03+Diro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56185aa4e515:0x450fd3a3d70fb09a!8m2!3d-7.860971!4d110.340546!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzphf0_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.03+Diro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56185aa4e515:0x450fd3a3d70fb09a!8m2!3d-7.860971!4d110.340546!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzphf0_v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -571,25 +564,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.910045</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.910045</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.318456</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+43.557.15+Palbapang/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7affb1543de40d:0xad299f8db135a227!8m2!3d-7.9100447!4d110.3184564!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hz9hjc44?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -608,25 +600,24 @@
           <t>0838-1672-4219</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.4</v>
+        <v>-7.914095</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.914095</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.286522</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.03+Cengkiran/@-7.9140949,110.2144242,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7aff0328770e55:0x2fce0d42a236f93f!8m2!3d-7.9140949!4d110.286522!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv9pr3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -649,25 +640,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>-7.852853</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.852853</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.341899</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.11+Pucung+Pendowoharjo/@-7.8528534,110.2698008,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5624b913ac87:0xcf757a71874e87f4!8m2!3d-7.8528534!4d110.3418986!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptwq9bl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.11+Pucung+Pendowoharjo/@-7.8528534,110.2698008,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5624b913ac87:0xcf757a71874e87f4!8m2!3d-7.8528534!4d110.3418986!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptwq9bl2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>6 jam lalu</t>
         </is>
@@ -690,25 +680,24 @@
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.910983</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.910983</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.293768</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+Gas+Station+Pandak/@-7.9109833,110.2216706,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7aff1a8d6c947d:0x8653118630704475!8m2!3d-7.9109833!4d110.2937684!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6cvmv76?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,25 +720,24 @@
           <t>0857-9908-4844</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.885892</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.885892</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.35244</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.03+Gabusan/@-7.8858922,110.2803423,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a55e71a7b799d:0x64d8811c212f7a19!8m2!3d-7.8858922!4d110.3524401!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyj2mtj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,25 +760,24 @@
           <t>(0274) 4396244</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.860541</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.860541</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.374306</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.07/@-7.8858922,110.2803423,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a566119f3cdf3:0xf04b8dab5b492626!8m2!3d-7.860541!4d110.374306!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwcdjm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,25 +796,24 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.798439</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.798439</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.408291</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.03/@-7.7984393,110.3361932,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a575952cb5cf1:0xaaf3faf09697a725!8m2!3d-7.7984393!4d110.408291!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrh8pbg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -842,25 +828,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>-7.869219</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.869219</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.40195</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.16+Pleret/@-7.8692188,110.3298521,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a574d8fd4d90f:0xbb5fab34c9e18fba!8m2!3d-7.8692188!4d110.4019499!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11sw_wlkyp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -879,25 +864,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.844851</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.844851</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.360998</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.18+Sewon/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a564ed69c483d:0xedfdeab803cb8b92!8m2!3d-7.8448515!4d110.3609983!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpr61t_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.18+Sewon/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a564ed69c483d:0xedfdeab803cb8b92!8m2!3d-7.8448515!4d110.3609983!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpr61t_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -916,25 +900,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>-7.818984</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.818984</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.355937</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.01+Dukuh/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57bf982eb4d9:0x872b99e2c03dd1be!8m2!3d-7.8189845!4d110.3559367!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbx0ry5x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -953,25 +936,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.800586</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.800586</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.345205</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.06+Kadipiro/@-7.8448515,110.2889005,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57f7198aef79:0x4a8b7c6c61e2672a!8m2!3d-7.8005864!4d110.3452046!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztnm452?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,25 +976,24 @@
           <t>(0274) 6460056</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.929605</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.929605</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.348176</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.09+Patalan/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5571f31b1d71:0xe7e6add1747ebba6!8m2!3d-7.9296049!4d110.3481757!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6wjmh28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.09+Patalan/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5571f31b1d71:0xe7e6add1747ebba6!8m2!3d-7.9296049!4d110.3481757!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6wjmh28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1035,25 +1016,24 @@
           <t>(0274) 6460919</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.915028</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.915028</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.381934</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.05+Imogiri/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5454f5862271:0x183e009ddd47814a!8m2!3d-7.9150278!4d110.381934!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs424__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.05+Imogiri/@-7.9296049,110.2760779,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5454f5862271:0x183e009ddd47814a!8m2!3d-7.9150278!4d110.381934!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs424__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1076,25 +1056,24 @@
           <t>(0274) 452029</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.3</v>
+        <v>-7.837627</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.837627</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.399211</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.12+Singosaren/@-7.8376271,110.327113,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e1b2674217:0x293a3d11b1973040!8m2!3d-7.8376271!4d110.3992108!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyl1ky7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.12+Singosaren/@-7.8376271,110.327113,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e1b2674217:0x293a3d11b1973040!8m2!3d-7.8376271!4d110.3992108!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzyl1ky7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1117,25 +1096,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>3.8</v>
+        <v>-7.901995</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.901995</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.345543</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mangkuluhur/@-7.901995,110.2734453,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a55f865e2c0d7:0x6aa020a778c761ab!8m2!3d-7.901995!4d110.3455431!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11jyyhy0bz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1154,25 +1132,24 @@
           <t>0852-9245-3627</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>-7.864934</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.864934</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.389592</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Imogiri+Timur+44.557.01/@-7.8649339,110.317494,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a568fcf458529:0xc843440b9796e66e!8m2!3d-7.8649339!4d110.3895918!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr3_hd9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1195,25 +1172,24 @@
           <t>(0274) 4342265</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>-7.818917</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.818917</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.324458</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.14+Tamantirto/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af873734ceb1d:0x41bf531c420b8349!8m2!3d-7.8189172!4d110.3244579!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqczckx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.14+Tamantirto/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af873734ceb1d:0x41bf531c420b8349!8m2!3d-7.8189172!4d110.3244579!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqczckx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>17 jam lalu</t>
         </is>
@@ -1232,25 +1208,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-7.829236</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.829236</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.31915</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Bibis+Raya/@-7.8189172,110.2523601,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9dbdd0db8c1:0x57680fb209331d5d!8m2!3d-7.8292364!4d110.3191495!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kbx3sb_m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1273,25 +1248,24 @@
           <t>0896-6325-4991</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.83761</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.83761</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.399217</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BARKAS+JOGJA+DUA/@-7.8376105,110.327119,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e1ac3f387f:0xf3de41b894efd974!8m2!3d-7.8376105!4d110.3992168!15sCgtTUEJVIEJhbnR1bJIBDXN1cnBsdXNfc3RvcmXgAQA!16s%2Fg%2F11b6hk31x1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1306,25 +1280,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>-7.817234</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.817234</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.248104</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.14+UAD/@-7.8172337,110.1760063,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9ee089d9be7:0x4ac352dcf92f0a7b!8m2!3d-7.8172337!4d110.2481041!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0t9syxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.14+UAD/@-7.8172337,110.1760063,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9ee089d9be7:0x4ac352dcf92f0a7b!8m2!3d-7.8172337!4d110.2481041!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0t9syxv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1347,25 +1320,24 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>-7.992224</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.992224</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.315543</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.13+Kretek/@-7.9922237,110.2434455,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7b006efbb257ed:0xd6678a673e55556c!8m2!3d-7.9922237!4d110.3155433!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrjg_4s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.13+Kretek/@-7.9922237,110.2434455,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7b006efbb257ed:0xd6678a673e55556c!8m2!3d-7.9922237!4d110.3155433!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrjg_4s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1392,25 +1364,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.812302</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.812302</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.351409</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Bugisan+44.551.04/@-7.8123021,110.2793108,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57eb811e3525:0xee055c86d4e4b4d6!8m2!3d-7.8123021!4d110.3514086!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbymtw67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Bugisan+44.551.04/@-7.8123021,110.2793108,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57eb811e3525:0xee055c86d4e4b4d6!8m2!3d-7.8123021!4d110.3514086!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbymtw67?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -1429,25 +1400,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.843768</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.843768</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.410764</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Jambidan/@-7.8437681,110.3386664,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56c4ce0dd8dd:0x72d93cc02f63c5ad!8m2!3d-7.8437681!4d110.4107642!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr961kb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1462,25 +1432,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.82593</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.82593</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.345063</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+by+Pertamina/@-7.8259304,110.2729647,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a572bc6d2e799:0x74fffa5f4b9d0410!8m2!3d-7.8259304!4d110.3450625!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pqttw4kh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1503,25 +1472,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.1</v>
+        <v>-7.820712</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.820712</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.42155</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.10+Mantup/@-7.8207124,110.3494525,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5733c636ab4d:0x51b990fe909ffaef!8m2!3d-7.8207124!4d110.4215503!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzvzb386?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1544,25 +1512,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.820607</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.820607</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.480779</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina/@-7.8206074,110.4086813,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a505a10699c59:0xd03653b1cd25434c!8m2!3d-7.8206074!4d110.4807791!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrb707v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina/@-7.8206074,110.4086813,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a505a10699c59:0xd03653b1cd25434c!8m2!3d-7.8206074!4d110.4807791!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrb707v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1585,25 +1552,24 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.810999</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.810999</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.404631</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.02+Ketandan/@-7.810999,110.3325327,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57479d2cbe35:0x7debc49faa6cac12!8m2!3d-7.810999!4d110.4046305!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztzydpb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1626,25 +1592,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.812904</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.812904</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.266961</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,110.1948636,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sCgtTUEJVIEJhbnR1bFoNIgtzcGJ1IGJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,110.1948636,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sCgtTUEJVIEJhbnR1bFoNIgtzcGJ1IGJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1663,25 +1628,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F32" t="n">
-        <v>3.7</v>
+        <v>-7.911707</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.911707</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.363138</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Bakulan/@-7.9117066,110.2910406,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a55d50ad50f57:0x18adb16e23f8ae81!8m2!3d-7.9117066!4d110.3631384!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kj8wbclq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1700,25 +1664,24 @@
           <t>(0274) 380114</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.819075</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.819075</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.356049</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44-55101/@-7.8190748,110.2839508,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57bfee8f6fc3:0x88bb67bd92079823!8m2!3d-7.8190748!4d110.3560486!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzrh8pc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1733,25 +1696,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.883022</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.883022</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.305949</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Guwosari+Bantul/@-7.8830224,110.2338512,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7aff9d7be13cd5:0x345487b1af469ead!8m2!3d-7.8830224!4d110.305949!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pbdwwkkg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1770,25 +1732,24 @@
           <t>0812-5901-6998</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>-7.887632</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.887632</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.324802</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bensin+Bu+Salitri/@-7.8830224,110.2338512,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7affedfe3d35df:0x4b39feff706b03fd!8m2!3d-7.8876322!4d110.3248021!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hzzfxxgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bensin+Bu+Salitri/@-7.8830224,110.2338512,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7affedfe3d35df:0x4b39feff706b03fd!8m2!3d-7.8876322!4d110.3248021!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hzzfxxgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1815,25 +1776,24 @@
           <t>(0274) 4353260</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.3</v>
+        <v>-7.828123</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.828123</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.447537</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.3754389,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.557.04/@-7.8281231,110.3754389,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a50de78df6139:0xda5dc6eebf57936a!8m2!3d-7.8281231!4d110.4475367!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pztqj6zh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1860,25 +1820,24 @@
           <t>0821-3307-4407</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.3</v>
+        <v>-7.837737</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.837737</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.31199</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Bangunjiwo+4P.55103/@-7.8377368,110.2398921,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7af93085d0b9b5:0x3b4549a551632109!8m2!3d-7.8377368!4d110.3119899!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11rnbw4pks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1897,25 +1856,24 @@
           <t>0878-8669-8911</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.4</v>
+        <v>-7.827773</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.827773</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.353287</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+%26+Kelontong+Barokah+Dongkelan/@-7.827773,110.2811888,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a576937501bbd:0xe99d2e9eb6d495fa!8m2!3d-7.827773!4d110.3532866!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h0gdj941?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1938,25 +1896,24 @@
           <t>(0274) 410175</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.836149</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.836149</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.393358</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.11+Giwangan/@-7.8361488,110.3212606,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e286d70123:0x98cb2185e56eb363!8m2!3d-7.8361488!4d110.3933584!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptv_6tq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.11+Giwangan/@-7.8361488,110.3212606,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a56e286d70123:0x98cb2185e56eb363!8m2!3d-7.8361488!4d110.3933584!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptv_6tq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1975,25 +1932,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F40" t="n">
-        <v>3.8</v>
+        <v>-7.805637</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.805637</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.335009</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Ngestiharjo+Kasihan/@-7.8056373,110.2629109,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57ebd82e015f:0x3a43120822f57456!8m2!3d-7.8056373!4d110.3350087!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p5hq2jr0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2012,25 +1968,24 @@
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.1</v>
+        <v>-7.97308</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.97308</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.602031</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.07/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3691e8837f5:0x4b7bdc7c96145309!8m2!3d-7.9730802!4d110.6020306!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs7jj34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.07/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3691e8837f5:0x4b7bdc7c96145309!8m2!3d-7.9730802!4d110.6020306!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs7jj34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2049,25 +2004,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.1</v>
+        <v>-7.959134</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.959134</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.593997</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.05/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3480eef3061:0x6153c7d7a757fb44!8m2!3d-7.9591336!4d110.5939971!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrvmcx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.05/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3480eef3061:0x6153c7d7a757fb44!8m2!3d-7.9591336!4d110.5939971!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrvmcx3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2090,25 +2044,24 @@
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.2</v>
+        <v>-7.877169</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.877169</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.538275</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.06/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4de433982055:0xf7f9fe435cb6ee9!8m2!3d-7.8771691!4d110.5382748!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs9szdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.06/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4de433982055:0xf7f9fe435cb6ee9!8m2!3d-7.8771691!4d110.5382748!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs9szdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2135,25 +2088,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.4</v>
+        <v>-7.909531</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.909531</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.553521</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Gading+Pertamina+44.558.09/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4da765b93477:0x65b4a555a15b4d91!8m2!3d-7.9095313!4d110.5535208!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqmx_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Gading+Pertamina+44.558.09/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4da765b93477:0x65b4a555a15b4d91!8m2!3d-7.9095313!4d110.5535208!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqmx_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -2172,25 +2124,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.2</v>
+        <v>-7.980832</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.980832</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.616405</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.02+Baleharjo/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64ea2eab:0x2a0936056410b3c5!8m2!3d-7.9808322!4d110.6164047!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gb3n3p6r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.02+Baleharjo/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64ea2eab:0x2a0936056410b3c5!8m2!3d-7.9808322!4d110.6164047!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gb3n3p6r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -2209,25 +2160,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.5</v>
+        <v>-7.849736</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.849736</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.483938</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Patuk+Pertamina+44.558.15/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a51e0c16f6b4b:0x7abc18126a46675d!8m2!3d-7.849736!4d110.483938!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l8gs1gdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Patuk+Pertamina+44.558.15/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a51e0c16f6b4b:0x7abc18126a46675d!8m2!3d-7.849736!4d110.483938!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l8gs1gdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2254,25 +2204,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.3</v>
+        <v>-7.967879</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.967879</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.616954</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+43.558.10/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb4a0081870af:0x16e945137aa5e15d!8m2!3d-7.9678789!4d110.6169543!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrrrf9x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+43.558.10/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb4a0081870af:0x16e945137aa5e15d!8m2!3d-7.9678789!4d110.6169543!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrrrf9x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2295,25 +2244,24 @@
           <t>0812-4000-5817</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.7</v>
+        <v>-8.034679000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.034679000000001</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.584734</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+44.558.17+Mulo/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb17e127949b3:0x3aef642c359f7014!8m2!3d-8.0346788!4d110.5847338!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sgz0jg_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2328,25 +2276,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.6</v>
+        <v>-7.980769</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.980769</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.616422</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina+Spbu+4455802/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64f520d7:0xd14b14bced0a59fc!8m2!3d-7.980769!4d110.616422!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzt2_8lb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina+Spbu+4455802/@-7.8056036,110.2400464,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb37d64f520d7:0xd14b14bced0a59fc!8m2!3d-7.980769!4d110.616422!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzt2_8lb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2365,25 +2312,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.3</v>
+        <v>-7.841283</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.841283</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.697712</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.558.18+Ngawen/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a49f67dc4ac8b:0x32da814eecf1c52f!8m2!3d-7.8412829!4d110.6977121!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sw_sj7_k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2402,25 +2348,24 @@
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.1</v>
+        <v>-7.986333</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.986333</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.62602</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.11+Mijahan/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb487aae792e9:0x6b1b8304a5530eb7!8m2!3d-7.9863326!4d110.6260197!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bz_161yp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2443,25 +2388,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F52" t="n">
-        <v>4.3</v>
+        <v>-7.856305</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.856305</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.737085</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.04+keringan+kidul/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a3674c34df3f1:0x2925f346be7e9971!8m2!3d-7.8563048!4d110.737085!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqfh490?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.558.04+keringan+kidul/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a3674c34df3f1:0x2925f346be7e9971!8m2!3d-7.8563048!4d110.737085!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzqfh490?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2484,25 +2428,24 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.4</v>
+        <v>-7.952105</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.952105</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.667276</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+PERTAMINA+44.558.08/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb529a1131dd5:0x24827558ee25eda0!8m2!3d-7.9521047!4d110.6672761!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hbb_yfc_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+PERTAMINA+44.558.08/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb529a1131dd5:0x24827558ee25eda0!8m2!3d-7.9521047!4d110.6672761!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hbb_yfc_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2525,25 +2468,24 @@
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.5</v>
+        <v>-7.997903</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.997903</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.592408</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Nduwet+Pertamina+44.558.12/@-7.8412829,110.409321,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb3a2655448c7:0x6ac5b8c31b0ebf34!8m2!3d-7.9979031!4d110.5924083!15sChBTUEJVIEd1bnVuZ2tpZHVsWhIiEHNwYnUgZ3VudW5na2lkdWySAQtnYXNfc3RhdGlvbuABAA!16s%2Fg%2F11bzrq0yjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2558,25 +2500,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.4</v>
+        <v>-7.945873</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.945873</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.558903</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Bensin+Pertamina+Playen/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d2e75616807:0xbb2f56b0e4c66c5b!8m2!3d-7.9458726!4d110.5589029!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f54q6gy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2591,25 +2532,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.4</v>
+        <v>-7.943487</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.943487</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.604541</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.558.19/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dc2ef6eccd7:0x353ea932c2e1ac1d!8m2!3d-7.9434871!4d110.6045407!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ty5y549b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2624,25 +2564,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.936273</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.936273</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.684364</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+KARANGMOJO+44.558.16/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4b48b5aa0e57:0xbc586e1150365713!8m2!3d-7.9362735!4d110.6843641!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11smlhrf_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+KARANGMOJO+44.558.16/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4b48b5aa0e57:0xbc586e1150365713!8m2!3d-7.9362735!4d110.6843641!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11smlhrf_c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2665,25 +2604,24 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.4</v>
+        <v>-7.999445</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.999445</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.680575</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Sapiturrang+Pertamina+44.558.13/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5bbbab3b8a9:0x1e8c368091bc17ad!8m2!3d-7.9994453!4d110.6805751!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f15g96g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Sapiturrang+Pertamina+44.558.13/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5bbbab3b8a9:0x1e8c368091bc17ad!8m2!3d-7.9994453!4d110.6805751!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f15g96g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2706,25 +2644,24 @@
           <t>0818-0268-9997</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.5</v>
+        <v>-8.131811000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.131811000000001</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.581235</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+4P.55804/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bbbf902eee705:0x9c9a19577770b36b!8m2!3d-8.131811!4d110.581235!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11r10h8qhj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2739,25 +2676,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.852917</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.852917</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.657764</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Natah+Gunungkidul/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a491d7f05e001:0x9587398854f52e42!8m2!3d-7.8529168!4d110.657764!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11vh_b98tb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2776,25 +2712,24 @@
           <t>0838-6189-2813</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F61" t="n">
-        <v>3.3</v>
+        <v>-7.923592</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.923592</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.612915</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+4P55815/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dd40a77bd59:0xce87e827e28fecc1!8m2!3d-7.9235918!4d110.6129153!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx0f51lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+4P55815/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4dd40a77bd59:0xce87e827e28fecc1!8m2!3d-7.9235918!4d110.6129153!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx0f51lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2817,25 +2752,24 @@
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F62" t="n">
-        <v>3.7</v>
+        <v>-7.964079</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.964079</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.513844</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PERTAMINA/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad5a73b99039:0xdc00cf4ba3778d58!8m2!3d-7.9640792!4d110.513844!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tg42nqp7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PERTAMINA/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad5a73b99039:0xdc00cf4ba3778d58!8m2!3d-7.9640792!4d110.513844!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tg42nqp7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2854,25 +2788,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.983068</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.983068</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.538256</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+Grogol+Paliyan+Gunungkidul/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb30da0bca835:0x9e9cec4d75a96426!8m2!3d-7.9830684!4d110.5382561!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rxxhyg3_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+Grogol+Paliyan+Gunungkidul/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb30da0bca835:0x9e9cec4d75a96426!8m2!3d-7.9830684!4d110.5382561!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rxxhyg3_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2895,25 +2828,24 @@
           <t>0815-6267-895</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.8</v>
+        <v>-8.036288000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.036288000000001</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.468399</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamini+KinKin+13/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bac2a258bb967:0x11200fb16f990cd9!8m2!3d-8.0362882!4d110.4683993!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fzf6xbx8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2928,25 +2860,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F65" t="n">
-        <v>3.3</v>
+        <v>-7.986415</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.986415</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.626021</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Spbu+Cabang+gading/@-7.9458726,110.2705118,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb487abad3a69:0xe83983e283bd0aa4!8m2!3d-7.9864152!4d110.6260207!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11c1wps0r9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2965,25 +2896,24 @@
           <t>0858-9144-3097</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.7</v>
+        <v>-8.021653000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.021653000000001</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.627262</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+EMI/@-8.0216528,110.3388708,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb506a273115f:0x19dcc781a52a335e!8m2!3d-8.0216528!4d110.6272619!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h6qdp_v9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3002,25 +2932,24 @@
           <t>(021) 8511753</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>-7.982292</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.982292</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.596364</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mobil+Indostation+Karangrejek+Gunungkidul/@-7.9822925,110.3079733,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb372541cdda5:0xfcfb00f1d5e9563d!8m2!3d-7.9822925!4d110.5963644!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11w3zmpz6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mobil+Indostation+Karangrejek+Gunungkidul/@-7.9822925,110.3079733,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb372541cdda5:0xfcfb00f1d5e9563d!8m2!3d-7.9822925!4d110.5963644!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11w3zmpz6z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3043,25 +2972,24 @@
           <t>0858-7700-0246</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
       <c r="F68" t="n">
-        <v>5</v>
+        <v>-7.825729</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.825729</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.752696</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+candirejo/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a37a0775a6c5b:0xe98ef45950cc85c0!8m2!3d-7.8257293!4d110.7526964!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ptvdh358?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+candirejo/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a37a0775a6c5b:0xe98ef45950cc85c0!8m2!3d-7.8257293!4d110.7526964!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ptvdh358?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3080,25 +3008,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.5</v>
+        <v>-7.961461</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.961461</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.723427</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/POM+BENSIN/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bcb353bdb43b1:0xea6dc40a8bd11c07!8m2!3d-7.961461!4d110.7234268!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pz2_025s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/POM+BENSIN/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bcb353bdb43b1:0xea6dc40a8bd11c07!8m2!3d-7.961461!4d110.7234268!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pz2_025s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3117,25 +3044,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>5</v>
+      </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>-7.794171</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.794171</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.669827</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+Tancep/@-7.8257293,110.4643053,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a49cb0038bafd:0xf4c0d020a62aeb3e!8m2!3d-7.7941708!4d110.6698269!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx535n5h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3154,25 +3080,24 @@
           <t>0818-0431-6654</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.1</v>
+        <v>-8.000632</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.000632</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.513361</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+4P.55827+Karangduwet-Paliyan/@-7.9520786,110.2491339,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad096ed645e5:0xd57029c4dabb9aac!8m2!3d-8.0006318!4d110.5133614!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11p183tkvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3188,22 +3113,21 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="n">
+        <v>-7.994298</v>
+      </c>
       <c r="G72" t="n">
-        <v>-7.994298</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.373962</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Giritirto+Purwosari+Gunungkidul/@-7.9942978,110.085571,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bab5b476bc04d:0x5d0f7d5ba8abd63f!8m2!3d-7.9942978!4d110.3739621!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pcltbdr1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3219,22 +3143,21 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>-7.987596</v>
+      </c>
       <c r="G73" t="n">
-        <v>-7.987596</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.544742</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pampang+Gunungkidul/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb28ca8b3802f:0x4eba282c320cebaf!8m2!3d-7.9875964!4d110.5447416!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11w1qwm4xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3253,25 +3176,24 @@
           <t>0852-2790-9500</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.938561</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.938561</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.534388</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PERTASHOP+NGUNUT+PLAYEN/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d70ed427d27:0xcf92e8002aaece50!8m2!3d-7.9385608!4d110.5343884!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11syqg8lvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PERTASHOP+NGUNUT+PLAYEN/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d70ed427d27:0xcf92e8002aaece50!8m2!3d-7.9385608!4d110.5343884!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11syqg8lvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3294,25 +3216,24 @@
           <t>(0274) 4398704</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.3</v>
+        <v>-7.788445</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.788445</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.482596</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.21+Bokoharjo/@-7.9875964,110.2563505,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a5a825c529dc5:0xe286bee81353bea5!8m2!3d-7.7884453!4d110.4825956!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzq_nslc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3331,25 +3252,24 @@
           <t>0812-6333-3644</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>-8.105086</v>
       </c>
       <c r="G76" t="n">
-        <v>-8.105086</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.690672</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertashop+Pertamax+92+%26+Toko+Sembako+Giripanggung,+Tepus,+Yogyakarta+Istimewa/@-8.1050856,110.4022806,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb728488e8049:0x898eea72d012be41!8m2!3d-8.1050856!4d110.6906717!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sgn_dgkh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3364,25 +3284,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.977476</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.977476</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.627394</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+ECERAN/@-8.1050856,110.4022806,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5250e6f6f87:0x53b27471ff976814!8m2!3d-7.9774761!4d110.6273943!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11jzqw_13s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3397,25 +3316,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.6</v>
+        <v>-8.064692000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.064692000000001</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.512398</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Terdekat+Pertashop+SAPUJAGAD/@-8.064692,110.2240069,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bafb7bbab234f:0x6300f6e8f280dbba!8m2!3d-8.064692!4d110.512398!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx5w8dxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Terdekat+Pertashop+SAPUJAGAD/@-8.064692,110.2240069,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bafb7bbab234f:0x6300f6e8f280dbba!8m2!3d-8.064692!4d110.512398!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sx5w8dxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -3438,25 +3356,24 @@
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.4</v>
+        <v>-7.832195</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.832195</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.461266</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/44.557.08+SPBU+PAYAK/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a50e2a9d6c291:0xa0d052714c6abdb7!8m2!3d-7.8321952!4d110.4612663!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpzxb4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/44.557.08+SPBU+PAYAK/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a50e2a9d6c291:0xa0d052714c6abdb7!8m2!3d-7.8321952!4d110.4612663!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpzxb4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -3475,25 +3392,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>-7.990417</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.990417</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.570895</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+4P55828/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb39b20e80da3:0xeb2b20b68f4348e9!8m2!3d-7.9904168!4d110.5708946!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11smryxs7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3512,25 +3428,24 @@
           <t>0838-4603-2258</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.845674</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.845674</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.592581</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+HARGOMULYO+GEDANGSARI/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4f5071c9eeb1:0x80d2f100f7573c56!8m2!3d-7.8456743!4d110.5925813!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11t54v0xnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3545,25 +3460,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.3</v>
+        <v>-8.036440000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.036440000000001</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.469065</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rayyan+Pom+Mini/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad0e94747a99:0x76c465762f2e0c00!8m2!3d-8.0364399!4d110.4690645!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f7r3t_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rayyan+Pom+Mini/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bad0e94747a99:0x76c465762f2e0c00!8m2!3d-8.0364399!4d110.4690645!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11f7r3t_06?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3582,25 +3496,24 @@
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>-8.039535000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.039535000000001</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.446528</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+Danik/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7baf0026567a95:0x658bb3e3dffc022f!8m2!3d-8.0395347!4d110.4465283!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ld92b2gg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3615,25 +3528,24 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>-7.945846</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.945846</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.558918</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%BA%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%B6%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%AD%EA%A6%AA%EA%A6%BA%EA%A6%A4%EA%A7%80/@-7.8321952,110.1728752,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4d6d20267f3f:0x8ba9831bb3c6eb69!8m2!3d-7.9458458!4d110.5589179!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11sj645c1q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3648,25 +3560,24 @@
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F85" t="n">
-        <v>3.8</v>
+        <v>-7.815616</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.815616</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.700218</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+JURANGJERO/@-7.8156164,110.4118269,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a491b4ea1a5bb:0x38b837956a42082c!8m2!3d-7.8156164!4d110.700218!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11kzc3rblz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3681,25 +3592,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>-7.961698</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.961698</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.601211</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POS+SEMENTARA+SATLANTAS+GNK/@-7.8156164,110.4118269,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb39014620ecd:0xc41522e1c1dd29b2!8m2!3d-7.9616981!4d110.6012111!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gtgfssp2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3714,25 +3624,24 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.8</v>
+        <v>-7.957862</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.957862</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.641598</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+4P55841+Kayuwalang+Wiladeg/@-7.8156164,110.4118269,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb508b39cdf49:0xff0f5ef799742bd1!8m2!3d-7.9578618!4d110.6415983!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rr69dl4y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3747,25 +3656,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.1</v>
+        <v>-8.068203</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.068203</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.548753</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+4P.55840+Giring/@-8.0682032,110.2603615,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb1b4ee8853a7:0xf69c72370ff7735a!8m2!3d-8.0682032!4d110.5487526!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rqtp2_7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+4P.55840+Giring/@-8.0682032,110.2603615,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb1b4ee8853a7:0xf69c72370ff7735a!8m2!3d-8.0682032!4d110.5487526!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rqtp2_7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3784,25 +3692,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>-7.957247</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.957247</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.644512</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/bayu+pertamini/@-8.0682032,110.2603615,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5be41111c33:0x4cefe47832ce0559!8m2!3d-7.9572475!4d110.6445122!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pxw871jy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3817,25 +3724,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.7</v>
+        <v>-8.149369</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.149369</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.709003</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+4P55822+ds.+Jepitu/@-8.1493686,110.4206121,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb9a17df06a5d:0x40ab570c8476c9f2!8m2!3d-8.1493686!4d110.7090032!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11k44whqm5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3854,25 +3760,24 @@
           <t>0819-0375-5558</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>5</v>
+      </c>
       <c r="F91" t="n">
-        <v>5</v>
+        <v>-7.856042</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.856042</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.585907</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pom+mini+bu+tumpuk/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4fe6d6be0043:0x126411444a253c90!8m2!3d-7.8560416!4d110.5859072!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j6kxlz_s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pom+mini+bu+tumpuk/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a4fe6d6be0043:0x126411444a253c90!8m2!3d-7.8560416!4d110.5859072!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j6kxlz_s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3895,25 +3800,24 @@
           <t>0819-9625-9161</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.5</v>
+        <v>-8.004873999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.004873999999999</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.655377</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pom+Mini+Jokowi/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb51c7d364319:0xe7c9622006f78e1d!8m2!3d-8.0048737!4d110.6553771!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fn78c4zq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pom+Mini+Jokowi/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb51c7d364319:0xe7c9622006f78e1d!8m2!3d-8.0048737!4d110.6553771!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fn78c4zq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3932,25 +3836,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>-7.960962</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.960962</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.677467</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+srimpi+4P55809/@-7.8560416,110.2975161,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7bb5fb40054bf5:0x69265015ba25029f!8m2!3d-7.9609618!4d110.6774668!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11nxpk_rvp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3969,25 +3872,24 @@
           <t>0818-876-115</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>-7.866515</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.866515</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.733137</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamini+Ook/@-7.8665147,110.4447456,11z/data=!4m11!1m3!2m2!1sSPBU+Gunungkidul!6e2!3m6!1s0x2e7a359dd0f8820d:0x6bd19a504f3fb272!8m2!3d-7.8665147!4d110.7331367!15sChBTUEJVIEd1bnVuZ2tpZHVskgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fm_0rfvz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4006,25 +3908,24 @@
           <t>(0274) 588972</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.4</v>
+        <v>-7.801775</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.801775</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.385773</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.09+Semaki/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a577bbf0eb4d3:0x27b4a907ae87e8fd!8m2!3d-7.801775!4d110.3857727!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzp_rqfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4043,25 +3944,24 @@
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.5</v>
+        <v>-7.790452</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.790452</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.380183</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+COCO+41.551.01/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d4a089d54f:0xdb5f2c2f6a8ebd4!8m2!3d-7.790452!4d110.3801828!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm1sn4f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+COCO+41.551.01/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d4a089d54f:0xdb5f2c2f6a8ebd4!8m2!3d-7.790452!4d110.3801828!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm1sn4f4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -4088,25 +3988,24 @@
           <t>(0274) 566003</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F97" t="n">
-        <v>4.3</v>
+        <v>-7.79196</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.79196</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.357269</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.14+Gedong+Tengen/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a582184ce34c7:0xc6b0c9ee611c84ef!8m2!3d-7.7919598!4d110.357269!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4h4db9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4121,25 +4020,24 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.4</v>
+        <v>-7.785543</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.785543</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.387976</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.16+Munggur/@-7.801775,110.3136749,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d036a3740b:0xe15ba745e27ddae5!8m2!3d-7.7855425!4d110.3879761!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hcz1jfhc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4162,25 +4060,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.3</v>
+        <v>-7.785728</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.785728</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.352793</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Tegalrejo+41.552.02/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581791b09f03:0x6d5488ff399afada!8m2!3d-7.785728!4d110.3527928!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4dw4ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Tegalrejo+41.552.02/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581791b09f03:0x6d5488ff399afada!8m2!3d-7.785728!4d110.3527928!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4dw4ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -4203,25 +4100,24 @@
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F100" t="n">
-        <v>4.2</v>
+        <v>-7.802065</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.802065</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.378416</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Sentul+Pakualaman+44.551.15/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5782750837ff:0xaab35bfaf1f01e97!8m2!3d-7.8020653!4d110.3784159!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzplgq4v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4240,25 +4136,24 @@
           <t>(0274) 523971</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.4</v>
+        <v>-7.781221</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.781221</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.352005</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.11/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583dbf8ea3f5:0x81feef082836a862!8m2!3d-7.7812209!4d110.352005!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm2tfbld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4277,25 +4172,24 @@
           <t>0813-2865-0650</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.4</v>
+        <v>-7.815606</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.815606</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.374246</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+KASAM+4455117/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a572b577a845b:0x32aedd5f13c8d609!8m2!3d-7.8156056!4d110.374246!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11rr_lwllh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4310,25 +4204,24 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.6</v>
+        <v>-7.815616</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.815616</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.374214</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Ada+Dexlite/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57d84d34bc91:0x530fdf5f3c7a0db6!8m2!3d-7.815616!4d110.3742139!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g__42xg_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4347,25 +4240,24 @@
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F104" t="n">
-        <v>4.3</v>
+        <v>-7.78169</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.78169</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.367504</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Tugu+44.55215/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830a2c4d223:0x68058762f90181ff!8m2!3d-7.7816899!4d110.3675038!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm3qfcv9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4388,25 +4280,24 @@
           <t>(0274) 385442</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.4</v>
+        <v>-7.824083</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.824083</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.377991</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Lowanu+44.551.13/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57a52919ffff:0xe5624f1710ffacbb!8m2!3d-7.8240828!4d110.3779905!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm23xw87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4425,25 +4316,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.1</v>
+        <v>-7.818074</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.818074</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.390397</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.551.05+Gambiran/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57127e4a1f9f:0x604877452a25e1aa!8m2!3d-7.8180737!4d110.3903973!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzslk1h5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4458,25 +4348,24 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.6</v>
+        <v>-7.802114</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.802114</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.378393</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+SPBU+Yogyakarta/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57619cdc7543:0x9cab104927cfdb56!8m2!3d-7.8021144!4d110.3783925!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fd6lw9zx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4499,25 +4388,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F108" t="n">
-        <v>4.3</v>
+        <v>-7.824502</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.824502</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.367444</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.08+Jogokariyan/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57a5263ea5d5:0xd2b1d24b3507131!8m2!3d-7.8245019!4d110.367444!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbw_v9p6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4536,25 +4424,24 @@
           <t>0812-2813-1123</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.5</v>
+        <v>-7.798051</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.798051</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.392638</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Timoho/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57cc9a5a18f1:0x7f770534ec447066!8m2!3d-7.798051!4d110.3926384!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h1z2n3jx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4569,25 +4456,24 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.4</v>
+        <v>-7.78301</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.78301</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.408051</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+COCO+Pertamina+41.552.01+Laksda+Adisucipto/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59e8b1fbc093:0xc427e0048f072dd5!8m2!3d-7.7830104!4d110.4080506!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptvrqn5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+COCO+Pertamina+41.552.01+Laksda+Adisucipto/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59e8b1fbc093:0xc427e0048f072dd5!8m2!3d-7.7830104!4d110.4080506!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1ptvrqn5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>16 jam lalu</t>
         </is>
@@ -4610,25 +4496,24 @@
           <t>(0274) 488518</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F111" t="n">
-        <v>4.2</v>
+        <v>-7.783631</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.783631</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.406586</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.10/@-7.7830104,110.3359528,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59e89e585be9:0x6ea682fa75be5af7!8m2!3d-7.7836306!4d110.4065861!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b64k_30t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4647,25 +4532,24 @@
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.2</v>
+        <v>-7.755951</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.755951</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.382513</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.09+Kentungan/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59aa45912a81:0x68458fbcaea50d9f!8m2!3d-7.7559509!4d110.3825131!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs_15hc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4680,25 +4564,24 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F113" t="n">
-        <v>3.7</v>
+        <v>-7.772035</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.772035</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.360024</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Kricak+Tegalrejo/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5901257ca957:0x751239ce3f67b3ab!8m2!3d-7.7720346!4d110.3600241!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11rcd9fth4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4721,25 +4604,24 @@
           <t>(0274) 584470</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F114" t="n">
-        <v>4.3</v>
+        <v>-7.760211</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.760211</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.369296</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.08+Monjali/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5851acb39c79:0x53cf455d8efca403!8m2!3d-7.7602111!4d110.3692957!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pty9wf8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4754,25 +4636,24 @@
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F115" t="n">
-        <v>4.3</v>
+        <v>-7.787291</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.787291</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.388384</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mini+IST+AKPRIND/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59be02ddd20d:0x1d4a41f041cac83e!8m2!3d-7.7872911!4d110.3883835!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11flbpl6p_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4787,25 +4668,24 @@
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F116" t="n">
-        <v>2.5</v>
+        <v>-7.781176</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.781176</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.352006</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+My+Pertamina+SPBU+Godean/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a590ab4a3c343:0xd72c71c7aca0144f!8m2!3d-7.7811762!4d110.3520062!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11qldsd4ps?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4824,25 +4704,24 @@
           <t>0815-6511-313</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.4</v>
+        <v>-7.812357</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.812357</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.351392</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/I+LOVE+NITROGEN+BUGISAN/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57e19f8a5b99:0x6904e34a59395ad9!8m2!3d-7.8123575!4d110.3513917!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h10df3k7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4857,25 +4736,24 @@
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F118" t="n">
-        <v>3.7</v>
+        <v>-7.78161</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.78161</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.367257</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+(Pangkalan+LPG+3Kg+PT.Budi+Bakti+Mulia)/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830a316aa8d:0x4b43d8f6ebbaa82d!8m2!3d-7.7816104!4d110.3672569!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g6bg8hbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4890,25 +4768,24 @@
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F119" t="n">
-        <v>4.4</v>
+        <v>-7.782086</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.782086</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.37218</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr">
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Nitrogen+Terban/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5975eaaa4527:0x1e8bcae7a62cb6cf!8m2!3d-7.782086!4d110.3721803!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h4nb8hc6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4931,25 +4808,24 @@
           <t>0855-1801-777</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F120" t="n">
-        <v>4.5</v>
+        <v>-7.790201</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.790201</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.379834</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+41+-+55101/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59d4a1f8ae15:0x6ca1a6614a847e8d!8m2!3d-7.7902007!4d110.3798339!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBCXRpcmVfc2hvcOABAA!16s%2Fg%2F11c71ln26h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4964,25 +4840,24 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>5</v>
+      </c>
       <c r="F121" t="n">
-        <v>5</v>
+        <v>-7.807772</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.807772</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.371705</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr">
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POM+BENSIN+Kerkop/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57001a190dfd:0xed68f86381e0ea24!8m2!3d-7.8077719!4d110.3717049!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11vqn47gzx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4997,25 +4872,24 @@
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
       <c r="F122" t="n">
-        <v>3</v>
+        <v>-7.781276</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.781276</v>
-      </c>
-      <c r="H122" t="n">
         <v>110.352049</v>
       </c>
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr">
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+flazz+jogja/@-7.7812764,110.2799507,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59ae2fa0040b:0xd6b0c8f6a917d676!8m2!3d-7.7812764!4d110.3520485!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11khrk7dzj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5034,25 +4908,24 @@
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="E123" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F123" t="n">
-        <v>4.3</v>
+        <v>-7.746823</v>
       </c>
       <c r="G123" t="n">
-        <v>-7.746823</v>
-      </c>
-      <c r="H123" t="n">
         <v>110.353978</v>
       </c>
-      <c r="I123" t="b">
-        <v>0</v>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Ringroad+Jombor+Pertamina+43.552.18/@-7.7468233,110.2818802,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a588d3f5abc33:0xa786aba8e7f07246!8m2!3d-7.7468233!4d110.353978!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjj5c9wj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J123" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Ringroad+Jombor+Pertamina+43.552.18/@-7.7468233,110.2818802,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a588d3f5abc33:0xa786aba8e7f07246!8m2!3d-7.7468233!4d110.353978!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjj5c9wj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -5075,25 +4948,24 @@
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F124" t="n">
-        <v>4.3</v>
+        <v>-7.821525</v>
       </c>
       <c r="G124" t="n">
-        <v>-7.821525</v>
-      </c>
-      <c r="H124" t="n">
         <v>110.361652</v>
       </c>
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr">
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kios+Bensin+Pak+Kardi/@-7.8215252,110.2895546,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57c6fd4c7f51:0x23c2ff3573e27077!8m2!3d-7.8215252!4d110.3616524!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11frdj78qz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5108,25 +4980,24 @@
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="E125" t="n">
+        <v>5</v>
+      </c>
       <c r="F125" t="n">
-        <v>5</v>
+        <v>-7.783101</v>
       </c>
       <c r="G125" t="n">
-        <v>-7.783101</v>
-      </c>
-      <c r="H125" t="n">
         <v>110.436195</v>
       </c>
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr">
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.552.04+Adisucipto/@-7.7831014,110.3640972,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a053c8974b1:0xc27ce4dd8810e67a!8m2!3d-7.7831014!4d110.436195!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzr7lzm_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5145,25 +5016,24 @@
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="E126" t="n">
+        <v>3</v>
+      </c>
       <c r="F126" t="n">
-        <v>3</v>
+        <v>-7.790409</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.790409</v>
-      </c>
-      <c r="H126" t="n">
         <v>110.380111</v>
       </c>
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr">
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pt.Pertamina/@-7.7904093,110.3080136,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a592ec5bfc36b:0x2e466ad22055784d!8m2!3d-7.7904093!4d110.3801114!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fjpfymlw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5182,25 +5052,24 @@
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="E127" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F127" t="n">
-        <v>4.3</v>
+        <v>-7.738825</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.738825</v>
-      </c>
-      <c r="H127" t="n">
         <v>110.362607</v>
       </c>
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr">
+      <c r="H127" t="b">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.19+Mlati+Baru/@-7.7904093,110.3080136,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58e93a03a78f:0xaaa5b5667903ba6d!8m2!3d-7.7388252!4d110.3626073!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b72qn4hr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5215,25 +5084,24 @@
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="E128" t="n">
+        <v>5</v>
+      </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>-7.832491</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.832491</v>
-      </c>
-      <c r="H128" t="n">
         <v>110.398018</v>
       </c>
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr">
+      <c r="H128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bensin+eceran/@-7.8324912,110.3259197,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5761f0d5abbd:0x61827559b082eead!8m2!3d-7.8324912!4d110.3980175!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11sm__x6zb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5252,25 +5120,24 @@
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="E129" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F129" t="n">
-        <v>4.3</v>
+        <v>-7.773979</v>
       </c>
       <c r="G129" t="n">
-        <v>-7.773979</v>
-      </c>
-      <c r="H129" t="n">
         <v>110.410335</v>
       </c>
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr">
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Babarsari+44.552.13./@-7.7739794,110.3382375,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59efe41573c7:0x175d08282e6be117!8m2!3d-7.7739794!4d110.4103353!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b636d6bh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5285,25 +5152,24 @@
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F130" t="n">
-        <v>4.1</v>
+        <v>-7.766247</v>
       </c>
       <c r="G130" t="n">
-        <v>-7.766247</v>
-      </c>
-      <c r="H130" t="n">
         <v>110.431646</v>
       </c>
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr">
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PertaminaTajem+44.552.17/@-7.7739794,110.3382375,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a26a059914d:0x5fc0da83f2005bff!8m2!3d-7.7662469!4d110.4316464!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bv3x_r28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5326,25 +5192,24 @@
           <t>(0274) 496130</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr"/>
+      <c r="E131" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F131" t="n">
-        <v>4.4</v>
+        <v>-7.761272</v>
       </c>
       <c r="G131" t="n">
-        <v>-7.761272</v>
-      </c>
-      <c r="H131" t="n">
         <v>110.476938</v>
       </c>
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr">
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.01+Kalasan/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5af709e55801:0x8281ba21678e826c!8m2!3d-7.7612724!4d110.4769384!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzshg802?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5359,25 +5224,24 @@
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="E132" t="n">
+        <v>5</v>
+      </c>
       <c r="F132" t="n">
-        <v>5</v>
+        <v>-7.814045</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.814045</v>
-      </c>
-      <c r="H132" t="n">
         <v>110.398539</v>
       </c>
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr">
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+Artomoro/@-7.8140455,110.3264411,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a576b3b617785:0x73477c75074ce30c!8m2!3d-7.8140455!4d110.3985389!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11r_vnw9_5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5400,25 +5264,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F133" t="n">
-        <v>4.4</v>
+        <v>-7.773564</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.773564</v>
-      </c>
-      <c r="H133" t="n">
         <v>110.315188</v>
       </c>
-      <c r="I133" t="b">
-        <v>0</v>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.06+Godean/@-7.7735639,110.2430904,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af7c38fd9b029:0xf39831c5f0b0d20c!8m2!3d-7.7735639!4d110.3151882!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq82xsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J133" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.06+Godean/@-7.7735639,110.2430904,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af7c38fd9b029:0xf39831c5f0b0d20c!8m2!3d-7.7735639!4d110.3151882!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzq82xsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -5445,25 +5308,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr"/>
+      <c r="E134" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F134" t="n">
-        <v>4.2</v>
+        <v>-7.732681</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.732681</v>
-      </c>
-      <c r="H134" t="n">
         <v>110.363662</v>
       </c>
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr">
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mulungan%2FMlati/@-7.7326805,110.2915641,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a58c2f62b0391:0xf1ab080746010a2f!8m2!3d-7.7326805!4d110.3636619!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11ckky6xw4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5482,25 +5344,24 @@
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="E135" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F135" t="n">
-        <v>4.6</v>
+        <v>-7.78562</v>
       </c>
       <c r="G135" t="n">
-        <v>-7.78562</v>
-      </c>
-      <c r="H135" t="n">
         <v>110.35292</v>
       </c>
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr">
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Musholla+SPBU+Tegalrejo/@-7.7326805,110.2915641,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581793dd2301:0x5e2da9caf70d6c76!8m2!3d-7.7856199!4d110.3529203!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBB211c2FsbGHgAQA!16s%2Fg%2F1pzxh22m8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5519,25 +5380,24 @@
           <t>0815-4824-9199</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr"/>
+      <c r="E136" t="n">
+        <v>5</v>
+      </c>
       <c r="F136" t="n">
-        <v>5</v>
+        <v>-7.78905</v>
       </c>
       <c r="G136" t="n">
-        <v>-7.78905</v>
-      </c>
-      <c r="H136" t="n">
         <v>110.389158</v>
       </c>
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr">
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/pertamini+pom+mini+talok/@-7.7326805,110.2915641,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5900676c48b5:0x5702af06879e0ff1!8m2!3d-7.7890502!4d110.3891575!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11wwhktyx2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5553,22 +5413,21 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" t="n">
+        <v>-7.786886</v>
+      </c>
       <c r="G137" t="n">
-        <v>-7.786886</v>
-      </c>
-      <c r="H137" t="n">
         <v>110.360215</v>
       </c>
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr">
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POM+MINI/@-7.7279328,110.3081859,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a599667a853c3:0x85e80174b2d9b126!8m2!3d-7.7868864!4d110.3602151!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11tx5wt6pz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5583,25 +5442,24 @@
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="E138" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F138" t="n">
-        <v>3.7</v>
+        <v>-7.822413</v>
       </c>
       <c r="G138" t="n">
-        <v>-7.822413</v>
-      </c>
-      <c r="H138" t="n">
         <v>110.368245</v>
       </c>
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr">
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bengkel+Sahlan/@-7.8224133,110.2961471,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57ff5f9a8d07:0xa622e4e3c76f372d!8m2!3d-7.8224133!4d110.3682449!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h6nr2rpm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5625,22 +5483,21 @@
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
+      <c r="F139" t="n">
+        <v>-7.825209</v>
+      </c>
       <c r="G139" t="n">
-        <v>-7.825209</v>
-      </c>
-      <c r="H139" t="n">
         <v>110.394851</v>
       </c>
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr">
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bensin+Ecer+PERTAGAR/@-7.8224133,110.2961471,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a572db6a7eda1:0x651c32ad6e8a3f85!8m2!3d-7.8252091!4d110.3948506!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11vc35c21y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5655,25 +5512,24 @@
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F140" t="n">
-        <v>3.7</v>
+        <v>-7.782944</v>
       </c>
       <c r="G140" t="n">
-        <v>-7.782944</v>
-      </c>
-      <c r="H140" t="n">
         <v>110.358326</v>
       </c>
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tambal+ban/@-7.8224133,110.2961471,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5957b53ce147:0xfc1f4cd0930be089!8m2!3d-7.7829436!4d110.3583264!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11hm7rvl5n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5692,25 +5548,24 @@
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="E141" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F141" t="n">
-        <v>4.2</v>
+        <v>-7.732218</v>
       </c>
       <c r="G141" t="n">
-        <v>-7.732218</v>
-      </c>
-      <c r="H141" t="n">
         <v>110.325538</v>
       </c>
-      <c r="I141" t="b">
-        <v>0</v>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.7322179,110.25344,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J141" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.7322179,110.25344,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -5737,25 +5592,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr"/>
+      <c r="E142" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F142" t="n">
-        <v>4.4</v>
+        <v>-7.708579</v>
       </c>
       <c r="G142" t="n">
-        <v>-7.708579</v>
-      </c>
-      <c r="H142" t="n">
         <v>110.354762</v>
       </c>
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr">
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.02+Helsen/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5f3602bababb:0x3d988e8eb2d0bb04!8m2!3d-7.708579!4d110.354762!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv1ctjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5770,25 +5624,24 @@
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="E143" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F143" t="n">
-        <v>4.2</v>
+        <v>-7.704977</v>
       </c>
       <c r="G143" t="n">
-        <v>-7.704977</v>
-      </c>
-      <c r="H143" t="n">
         <v>110.431184</v>
       </c>
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr">
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Mindi/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5c03e2b64397:0x3c44f01bd32377a7!8m2!3d-7.7049775!4d110.4311841!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzqcl92r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5811,25 +5664,24 @@
           <t>(0274) 498326</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr"/>
+      <c r="E144" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F144" t="n">
-        <v>4.5</v>
+        <v>-7.779097</v>
       </c>
       <c r="G144" t="n">
-        <v>-7.779097</v>
-      </c>
-      <c r="H144" t="n">
         <v>110.455737</v>
       </c>
-      <c r="I144" t="b">
-        <v>0</v>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalitirto+44.555.14/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a6dd145e295:0x453cf152fb6f0a61!8m2!3d-7.7790969!4d110.4557365!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0p_qh4_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J144" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalitirto+44.555.14/@-7.7790969,110.3836387,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a6dd145e295:0x453cf152fb6f0a61!8m2!3d-7.7790969!4d110.4557365!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0p_qh4_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -5848,25 +5700,24 @@
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="E145" t="n">
+        <v>4</v>
+      </c>
       <c r="F145" t="n">
-        <v>4</v>
+        <v>-7.825553</v>
       </c>
       <c r="G145" t="n">
-        <v>-7.825553</v>
-      </c>
-      <c r="H145" t="n">
         <v>110.387531</v>
       </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr">
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pk+Marto/@-7.8255532,110.3154336,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57c83cd409d5:0xed3f3bb4851e5eb8!8m2!3d-7.8255532!4d110.3875314!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11nxpn15jn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5881,25 +5732,24 @@
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="E146" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F146" t="n">
-        <v>4.3</v>
+        <v>-7.695219</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.695219</v>
-      </c>
-      <c r="H146" t="n">
         <v>110.345778</v>
       </c>
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="H146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.32+Krapyak/@-7.695219,110.2736801,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5f555daa3461:0xfac0049a274727f0!8m2!3d-7.695219!4d110.3457779!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h22vrpbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5915,22 +5765,21 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>-7.800237</v>
+      </c>
       <c r="G147" t="n">
-        <v>-7.800237</v>
-      </c>
-      <c r="H147" t="n">
         <v>110.38771</v>
       </c>
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr">
+      <c r="H147" t="b">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+mini/@-7.8002374,110.3156118,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a575d6e819d1d:0x9eef30f8b6a2dafa!8m2!3d-7.8002374!4d110.3877096!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p_6b5qj1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5945,25 +5794,24 @@
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F148" t="n">
-        <v>4.5</v>
+        <v>-7.696461</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.696461</v>
-      </c>
-      <c r="H148" t="n">
         <v>110.41752</v>
       </c>
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr">
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.35+UII/@-7.6964607,110.345422,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5ff01b4f99f1:0xb4396877f6a6d96b!8m2!3d-7.6964607!4d110.4175198!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fl7vx9mf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5978,25 +5826,24 @@
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="n">
+        <v>5</v>
+      </c>
       <c r="F149" t="n">
-        <v>5</v>
+        <v>-7.792655</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.792655</v>
-      </c>
-      <c r="H149" t="n">
         <v>110.39261</v>
       </c>
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr">
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Refill+gas+kaleng/@-7.7926547,110.3205117,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59b70521c135:0x2c951bd59b290c0c!8m2!3d-7.7926547!4d110.3926095!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11sfgwtd4y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6011,25 +5858,24 @@
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="E150" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F150" t="n">
-        <v>4.3</v>
+        <v>-7.723719</v>
       </c>
       <c r="G150" t="n">
-        <v>-7.723719</v>
-      </c>
-      <c r="H150" t="n">
         <v>110.30788</v>
       </c>
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr">
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Seyegan/@-7.7237191,110.2357817,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af60cdab678f7:0x44d95929ce8cc39a!8m2!3d-7.7237191!4d110.3078795!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cjh_mhjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6045,22 +5891,21 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>-7.788201</v>
+      </c>
       <c r="G151" t="n">
-        <v>-7.788201</v>
-      </c>
-      <c r="H151" t="n">
         <v>110.379775</v>
       </c>
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr">
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pangkalan+Elpiji+%26+Kost+Putri+Roso/@-7.7882008,110.3076769,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a591b6adb74bb:0x2a2e50ee65ecd72c!8m2!3d-7.7882008!4d110.3797747!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pz7bvpzq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6083,25 +5928,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
+      <c r="E152" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F152" t="n">
-        <v>4.3</v>
+        <v>-7.867112</v>
       </c>
       <c r="G152" t="n">
-        <v>-7.867112</v>
-      </c>
-      <c r="H152" t="n">
         <v>110.149908</v>
       </c>
-      <c r="I152" t="b">
-        <v>0</v>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.556.02+Wates+Kota/@-7.8671122,110.0778103,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7afb3b0fff0d71:0x329cfd0ea516c690!8m2!3d-7.8671122!4d110.1499081!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzw588nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J152" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.556.02+Wates+Kota/@-7.8671122,110.0778103,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7afb3b0fff0d71:0x329cfd0ea516c690!8m2!3d-7.8671122!4d110.1499081!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzw588nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -6120,25 +5964,24 @@
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="E153" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F153" t="n">
-        <v>4.4</v>
+        <v>-7.67649</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.67649</v>
-      </c>
-      <c r="H153" t="n">
         <v>110.336834</v>
       </c>
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr">
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Medari/@-7.6764903,110.2647362,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5fb75d046cfb:0x132f658774e66be0!8m2!3d-7.6764903!4d110.336834!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11js46yyzf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6161,25 +6004,24 @@
           <t>0818-8288-4069</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
+      <c r="E154" t="n">
+        <v>5</v>
+      </c>
       <c r="F154" t="n">
-        <v>5</v>
+        <v>-7.782152</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.782152</v>
-      </c>
-      <c r="H154" t="n">
         <v>110.37212</v>
       </c>
-      <c r="I154" t="b">
-        <v>0</v>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kopi+Kenangan+-+SPBU+Terban+Yogyakarta/@-7.7821516,110.3000226,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5921fa85b82f:0xf294955390d92775!8m2!3d-7.7821516!4d110.3721204!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11ybxz3bxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J154" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kopi+Kenangan+-+SPBU+Terban+Yogyakarta/@-7.7821516,110.3000226,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5921fa85b82f:0xf294955390d92775!8m2!3d-7.7821516!4d110.3721204!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2NvZmZlZV9zaG9w4AEA!16s%2Fg%2F11ybxz3bxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -6202,25 +6044,24 @@
           <t>0812-9681-3350</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
+      <c r="E155" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F155" t="n">
-        <v>4.3</v>
+        <v>-7.7533</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.7533</v>
-      </c>
-      <c r="H155" t="n">
         <v>110.446295</v>
       </c>
-      <c r="I155" t="b">
-        <v>0</v>
+      <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kadisoka+44.555.33/@-7.7533002,110.3741968,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5b37ddacff99:0x452cb5488d60807f!8m2!3d-7.7533002!4d110.4462946!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h712yv7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J155" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Kadisoka+44.555.33/@-7.7533002,110.3741968,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5b37ddacff99:0x452cb5488d60807f!8m2!3d-7.7533002!4d110.4462946!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h712yv7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -6240,22 +6081,21 @@
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
+      <c r="F156" t="n">
+        <v>-7.814174</v>
+      </c>
       <c r="G156" t="n">
-        <v>-7.814174</v>
-      </c>
-      <c r="H156" t="n">
         <v>110.397083</v>
       </c>
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr">
+      <c r="H156" t="b">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+mini+botol/@-7.814174,110.3249852,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57006ad4a8bd:0x7f009d191a9afcfa!8m2!3d-7.814174!4d110.397083!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11lnrws_21?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6270,25 +6110,24 @@
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="E157" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F157" t="n">
-        <v>4.4</v>
+        <v>-7.819996</v>
       </c>
       <c r="G157" t="n">
-        <v>-7.819996</v>
-      </c>
-      <c r="H157" t="n">
         <v>110.274543</v>
       </c>
-      <c r="I157" t="b">
-        <v>0</v>
+      <c r="H157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+PERTASHOP+KALIURANG/@-7.8199962,110.2024456,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af97e8a046565:0x159074519b62a195!8m2!3d-7.8199962!4d110.2745434!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p6wsrq4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J157" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+PERTASHOP+KALIURANG/@-7.8199962,110.2024456,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af97e8a046565:0x159074519b62a195!8m2!3d-7.8199962!4d110.2745434!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11p6wsrq4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -6315,25 +6154,24 @@
           <t>(0293) 588200</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
+      <c r="E158" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F158" t="n">
-        <v>4.4</v>
+        <v>-7.640221</v>
       </c>
       <c r="G158" t="n">
-        <v>-7.640221</v>
-      </c>
-      <c r="H158" t="n">
         <v>110.322548</v>
       </c>
-      <c r="I158" t="b">
-        <v>0</v>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.564.04+Baledono/@-7.6402214,110.2504497,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af5510d1769db:0xab5b325a7a9b09ee!8m2!3d-7.6402214!4d110.3225475!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6sdwy69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J158" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.564.04+Baledono/@-7.6402214,110.2504497,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af5510d1769db:0xab5b325a7a9b09ee!8m2!3d-7.6402214!4d110.3225475!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b6sdwy69?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -6360,25 +6198,24 @@
           <t>(0274) 2820123</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
+      <c r="E159" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F159" t="n">
-        <v>4.3</v>
+        <v>-7.756319</v>
       </c>
       <c r="G159" t="n">
-        <v>-7.756319</v>
-      </c>
-      <c r="H159" t="n">
         <v>110.211022</v>
       </c>
-      <c r="I159" t="b">
-        <v>0</v>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.556.05+Kenteng+Nanggulan/@-7.756319,110.1389242,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af118a32e2297:0x47aad16b8c2a3a04!8m2!3d-7.756319!4d110.211022!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzssky_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J159" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.556.05+Kenteng+Nanggulan/@-7.756319,110.1389242,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af118a32e2297:0x47aad16b8c2a3a04!8m2!3d-7.756319!4d110.211022!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzssky_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -6405,25 +6242,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
+      <c r="E160" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F160" t="n">
-        <v>4.2</v>
+        <v>-7.652509</v>
       </c>
       <c r="G160" t="n">
-        <v>-7.652509</v>
-      </c>
-      <c r="H160" t="n">
         <v>110.373582</v>
       </c>
-      <c r="I160" t="b">
-        <v>0</v>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Kembang+Arum/@-7.652509,110.3014842,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5fb5ee44b745:0xeaf5c069a49d4f52!8m2!3d-7.652509!4d110.373582!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpngswy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J160" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Kembang+Arum/@-7.652509,110.3014842,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5fb5ee44b745:0xeaf5c069a49d4f52!8m2!3d-7.652509!4d110.373582!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpngswy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -6450,25 +6286,24 @@
           <t>(021) 26533555</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
+      <c r="E161" t="n">
+        <v>4</v>
+      </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>-7.782194</v>
       </c>
       <c r="G161" t="n">
-        <v>-7.782194</v>
-      </c>
-      <c r="H161" t="n">
         <v>110.372178</v>
       </c>
-      <c r="I161" t="b">
-        <v>0</v>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BTN+SPBU+Terban/@-7.7821939,110.3000806,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583176d9f54b:0xcc15907c1c776d00!8m2!3d-7.7821939!4d110.3721784!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBA2F0beABAA!16s%2Fg%2F1pzpq45vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J161" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BTN+SPBU+Terban/@-7.7821939,110.3000806,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a583176d9f54b:0xcc15907c1c776d00!8m2!3d-7.7821939!4d110.3721784!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBA2F0beABAA!16s%2Fg%2F1pzpq45vd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -6495,25 +6330,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr"/>
+      <c r="E162" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F162" t="n">
-        <v>4.3</v>
+        <v>-7.826015</v>
       </c>
       <c r="G162" t="n">
-        <v>-7.826015</v>
-      </c>
-      <c r="H162" t="n">
         <v>110.225915</v>
       </c>
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr">
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.01+Sentolo/@-7.8260155,109.9375241,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afa22fcd6f3e1:0xb2f6f20ba496e257!8m2!3d-7.8260155!4d110.2259152!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11cn935jyw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6536,25 +6370,24 @@
           <t>(0282) 531051</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr"/>
+      <c r="E163" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F163" t="n">
-        <v>4.2</v>
+        <v>-7.905817</v>
       </c>
       <c r="G163" t="n">
-        <v>-7.905817</v>
-      </c>
-      <c r="H163" t="n">
         <v>110.07896</v>
       </c>
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr">
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.556.08+Glagah+Kulonprogo/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae390f503e993:0xd685fb76a60f476d!8m2!3d-7.9058171!4d110.0789597!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzwfj56p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6577,25 +6410,24 @@
           <t>0857-2648-8938</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr"/>
+      <c r="E164" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F164" t="n">
-        <v>4.3</v>
+        <v>-7.871738</v>
       </c>
       <c r="G164" t="n">
-        <v>-7.871738</v>
-      </c>
-      <c r="H164" t="n">
         <v>110.208097</v>
       </c>
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr">
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.55.607+Sukoreno/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb939e33076d:0x8652cf0817567fa6!8m2!3d-7.8717376!4d110.2080967!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs6k611?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6614,25 +6446,24 @@
           <t>(0274) 2890140</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr"/>
+      <c r="E165" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F165" t="n">
-        <v>4.3</v>
+        <v>-7.832778</v>
       </c>
       <c r="G165" t="n">
-        <v>-7.832778</v>
-      </c>
-      <c r="H165" t="n">
         <v>110.181015</v>
       </c>
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr">
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.11+Pengasih/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afaf13a43fa0b:0xc132584839f978c8!8m2!3d-7.8327785!4d110.1810147!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bw4vlk04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6651,25 +6482,24 @@
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
+      <c r="E166" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F166" t="n">
-        <v>4.4</v>
+        <v>-7.796175</v>
       </c>
       <c r="G166" t="n">
-        <v>-7.796175</v>
-      </c>
-      <c r="H166" t="n">
         <v>110.228408</v>
       </c>
-      <c r="I166" t="b">
-        <v>0</v>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina/@-7.7961755,109.9400173,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af0ae947a9a63:0x1c4362bd10c03157!8m2!3d-7.7961755!4d110.2284084!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwncybs2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J166" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina/@-7.7961755,109.9400173,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af0ae947a9a63:0x1c4362bd10c03157!8m2!3d-7.7961755!4d110.2284084!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwncybs2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K166" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -6692,25 +6522,24 @@
           <t>(0274) 6472588</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr"/>
+      <c r="E167" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F167" t="n">
-        <v>4.3</v>
+        <v>-7.884658</v>
       </c>
       <c r="G167" t="n">
-        <v>-7.884658</v>
-      </c>
-      <c r="H167" t="n">
         <v>110.050097</v>
       </c>
-      <c r="I167" t="b">
-        <v>0</v>
+      <c r="H167" t="b">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.03+Temon/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae403445bb5f7:0x9aa295f7fc9bf09a!8m2!3d-7.8846585!4d110.0500973!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpmvnf1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J167" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.03+Temon/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae403445bb5f7:0x9aa295f7fc9bf09a!8m2!3d-7.8846585!4d110.0500973!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpmvnf1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K167" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -6737,25 +6566,24 @@
           <t>(0274) 775300</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr"/>
+      <c r="E168" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F168" t="n">
-        <v>4.3</v>
+        <v>-7.890152</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.890152</v>
-      </c>
-      <c r="H168" t="n">
         <v>110.113712</v>
       </c>
-      <c r="I168" t="b">
-        <v>0</v>
+      <c r="H168" t="b">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.06+Sogan/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae49fb5324a95:0xb886eb2acee16d6!8m2!3d-7.8901518!4d110.1137124!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzwmnzx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J168" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.06+Sogan/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae49fb5324a95:0xb886eb2acee16d6!8m2!3d-7.8901518!4d110.1137124!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzwmnzx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K168" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -6774,25 +6602,24 @@
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="E169" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F169" t="n">
-        <v>4.4</v>
+        <v>-7.715362</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.715362</v>
-      </c>
-      <c r="H169" t="n">
         <v>110.226811</v>
       </c>
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr">
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.12+Dekso/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3fb257d7509:0x74f1c8c1f61e19b6!8m2!3d-7.7153623!4d110.2268108!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h2hl7__x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6807,25 +6634,24 @@
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="E170" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F170" t="n">
-        <v>4.4</v>
+        <v>-7.859448</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.859448</v>
-      </c>
-      <c r="H170" t="n">
         <v>110.152417</v>
       </c>
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr">
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Beji+44.556.18+(Kasam)/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb0a09929591:0x2665fda648e842d5!8m2!3d-7.8594477!4d110.152417!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11q8nx3p6y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6844,25 +6670,24 @@
           <t>(0274) 2890644</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr"/>
+      <c r="E171" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F171" t="n">
-        <v>4.2</v>
+        <v>-7.87979</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.87979</v>
-      </c>
-      <c r="H171" t="n">
         <v>110.153137</v>
       </c>
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr">
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Giripeni+44.556.13/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb47c700d673:0x464e8a1f46a770a1!8m2!3d-7.8797904!4d110.1531372!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h3wxxfjm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6881,25 +6706,24 @@
           <t>0813-9079-8665</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr"/>
+      <c r="E172" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F172" t="n">
-        <v>4.4</v>
+        <v>-7.950897</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.950897</v>
-      </c>
-      <c r="H172" t="n">
         <v>110.214349</v>
       </c>
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr">
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Daendels+Barongan+Karangsewu/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd19dd869587:0xc960e7b92eb318f3!8m2!3d-7.9508967!4d110.2143485!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qyl5gn10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6918,25 +6742,24 @@
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="E173" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F173" t="n">
-        <v>4.3</v>
+        <v>-7.867624</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.867624</v>
-      </c>
-      <c r="H173" t="n">
         <v>110.180214</v>
       </c>
-      <c r="I173" t="b">
-        <v>0</v>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.04+Ngramang/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb7337f13e69:0x4d75ea93fdeed5db!8m2!3d-7.8676243!4d110.1802144!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzxpb_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J173" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.04+Ngramang/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb7337f13e69:0x4d75ea93fdeed5db!8m2!3d-7.8676243!4d110.1802144!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzxpb_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K173" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -6959,25 +6782,24 @@
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="E174" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F174" t="n">
-        <v>4.2</v>
+        <v>-7.940232</v>
       </c>
       <c r="G174" t="n">
-        <v>-7.940232</v>
-      </c>
-      <c r="H174" t="n">
         <v>110.228138</v>
       </c>
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr">
+      <c r="H174" t="b">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Bantengan,+Galur/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afddbc8788e5f:0x314c35bbdc0012e6!8m2!3d-7.9402324!4d110.2281378!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzyn0lvt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6992,25 +6814,24 @@
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="E175" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F175" t="n">
-        <v>4.1</v>
+        <v>-7.881319</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.881319</v>
-      </c>
-      <c r="H175" t="n">
         <v>110.206309</v>
       </c>
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr">
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PENDEM/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbe486bf22dd:0xce70c830bbf95f58!8m2!3d-7.8813187!4d110.206309!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j4w19yy2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7025,25 +6846,24 @@
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F176" t="n">
-        <v>3.6</v>
+        <v>-7.881257</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.881257</v>
-      </c>
-      <c r="H176" t="n">
         <v>110.206416</v>
       </c>
-      <c r="I176" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+4455615+Demangrejo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbd6b63402a7:0x9df858ad14162f82!8m2!3d-7.8812575!4d110.2064164!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11kvmxp5v3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7058,25 +6878,24 @@
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
+      <c r="E177" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F177" t="n">
-        <v>4.4</v>
+        <v>-7.889677</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.889677</v>
-      </c>
-      <c r="H177" t="n">
         <v>110.099474</v>
       </c>
-      <c r="I177" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="H177" t="b">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+Prima/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae4823053554b:0xb0f9020759721ebf!8m2!3d-7.8896768!4d110.0994741!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrp1w0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7091,25 +6910,24 @@
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+      <c r="E178" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F178" t="n">
-        <v>4.1</v>
+        <v>-7.867185</v>
       </c>
       <c r="G178" t="n">
-        <v>-7.867185</v>
-      </c>
-      <c r="H178" t="n">
         <v>110.1497</v>
       </c>
-      <c r="I178" t="b">
-        <v>0</v>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+44+-+55602/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb37b6781e2d:0x65f5b2e2ed863211!8m2!3d-7.8671849!4d110.1496999!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11c7vzjf3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J178" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+44+-+55602/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb37b6781e2d:0x65f5b2e2ed863211!8m2!3d-7.8671849!4d110.1496999!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11c7vzjf3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -7128,25 +6946,24 @@
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
+      <c r="E179" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F179" t="n">
-        <v>4.7</v>
+        <v>-7.651848</v>
       </c>
       <c r="G179" t="n">
-        <v>-7.651848</v>
-      </c>
-      <c r="H179" t="n">
         <v>110.256507</v>
       </c>
-      <c r="I179" t="b">
-        <v>0</v>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+ENERGY/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af50004bd637b:0x65e5cc685573f2bc!8m2!3d-7.6518476!4d110.2565066!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11y2t2cnp5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J179" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+ENERGY/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af50004bd637b:0x65e5cc685573f2bc!8m2!3d-7.6518476!4d110.2565066!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11y2t2cnp5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K179" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -7165,25 +6982,24 @@
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="E180" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F180" t="n">
-        <v>4.2</v>
+        <v>-7.893997</v>
       </c>
       <c r="G180" t="n">
-        <v>-7.893997</v>
-      </c>
-      <c r="H180" t="n">
         <v>110.217032</v>
       </c>
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr">
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd02392f75db:0xd6cc34fc8ae58a56!8m2!3d-7.893997!4d110.217032!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11twq6wds3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7202,25 +7018,24 @@
           <t>(0274) 7101977</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
+      <c r="E181" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F181" t="n">
-        <v>3.7</v>
+        <v>-7.82606</v>
       </c>
       <c r="G181" t="n">
-        <v>-7.82606</v>
-      </c>
-      <c r="H181" t="n">
         <v>110.225868</v>
       </c>
-      <c r="I181" t="b">
-        <v>0</v>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44-55601/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afa3ca53056d1:0x6172bc991a67bcf1!8m2!3d-7.8260601!4d110.225868!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzrn_6z4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J181" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44-55601/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afa3ca53056d1:0x6172bc991a67bcf1!8m2!3d-7.8260601!4d110.225868!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzrn_6z4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K181" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -7243,25 +7058,24 @@
           <t>0877-8915-0294</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F182" t="n">
-        <v>4.8</v>
+        <v>-7.796134</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.796134</v>
-      </c>
-      <c r="H182" t="n">
         <v>110.228319</v>
       </c>
-      <c r="I182" t="b">
-        <v>0</v>
+      <c r="H182" t="b">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT.Kamila+Nanggulan+Sejahtera/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af1e05b9f4e99:0x5ebe75dc429cc6c1!8m2!3d-7.7961336!4d110.2283188!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hzpcjh85?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J182" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT.Kamila+Nanggulan+Sejahtera/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af1e05b9f4e99:0x5ebe75dc429cc6c1!8m2!3d-7.7961336!4d110.2283188!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hzpcjh85?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K182" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -7280,25 +7094,24 @@
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>5</v>
+      </c>
       <c r="F183" t="n">
-        <v>5</v>
+        <v>-7.69378</v>
       </c>
       <c r="G183" t="n">
-        <v>-7.69378</v>
-      </c>
-      <c r="H183" t="n">
         <v>110.194235</v>
       </c>
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr">
+      <c r="H183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+TAMAN/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af379149bc7ff:0x2a563531f6625a02!8m2!3d-7.6937797!4d110.1942353!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j21b5mvg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7313,25 +7126,24 @@
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>5</v>
+      </c>
       <c r="F184" t="n">
-        <v>5</v>
+        <v>-7.670793</v>
       </c>
       <c r="G184" t="n">
-        <v>-7.670793</v>
-      </c>
-      <c r="H184" t="n">
         <v>110.166311</v>
       </c>
-      <c r="I184" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr">
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+PUJO+MART/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3c7c3758cd3:0x2ffbf5817c0211c6!8m2!3d-7.6707928!4d110.1663112!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11frphy_5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7346,25 +7158,24 @@
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>5</v>
+      </c>
       <c r="F185" t="n">
-        <v>5</v>
+        <v>-7.676786</v>
       </c>
       <c r="G185" t="n">
-        <v>-7.676786</v>
-      </c>
-      <c r="H185" t="n">
         <v>110.172239</v>
       </c>
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr">
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+TIMAN/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af314b19afdf3:0x4e25dc733c7b118!8m2!3d-7.6767864!4d110.1722392!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j7fcbry0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7379,25 +7190,24 @@
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="E186" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F186" t="n">
-        <v>4.4</v>
+        <v>-7.760984</v>
       </c>
       <c r="G186" t="n">
-        <v>-7.760984</v>
-      </c>
-      <c r="H186" t="n">
         <v>110.26492</v>
       </c>
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr">
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+SPBU+4455510+Sidorejo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af71e0c33db37:0x32deaab8eea73bae!8m2!3d-7.7609836!4d110.2649198!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzvfgck1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7412,25 +7222,24 @@
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>4</v>
+      </c>
       <c r="F187" t="n">
-        <v>4</v>
+        <v>-7.93003</v>
       </c>
       <c r="G187" t="n">
-        <v>-7.93003</v>
-      </c>
-      <c r="H187" t="n">
         <v>110.136735</v>
       </c>
-      <c r="I187" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr">
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Panjatan+Kulon+Progo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae3d50a12965b:0x2135c8cea93399ea!8m2!3d-7.9300303!4d110.1367354!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11mq75z0bw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7445,25 +7254,24 @@
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F188" t="n">
-        <v>4.7</v>
+        <v>-7.879652</v>
       </c>
       <c r="G188" t="n">
-        <v>-7.879652</v>
-      </c>
-      <c r="H188" t="n">
         <v>110.153343</v>
       </c>
-      <c r="I188" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr">
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Isi+Angin+Nitrogen+SPBU+Giripeni/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbc2ae48d4c3:0x39d9e6aac7abba3c!8m2!3d-7.8796522!4d110.153343!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11k_mvxs9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7479,22 +7287,21 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
+      <c r="F189" t="n">
+        <v>-7.855888</v>
+      </c>
       <c r="G189" t="n">
-        <v>-7.855888</v>
-      </c>
-      <c r="H189" t="n">
         <v>110.237274</v>
       </c>
-      <c r="I189" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr">
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Sabdo+Palon/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af9c466054b95:0x488b816e4b71f9d9!8m2!3d-7.8558877!4d110.2372744!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ptr51_82?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7509,25 +7316,24 @@
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F190" t="n">
-        <v>4.3</v>
+        <v>-7.872935</v>
       </c>
       <c r="G190" t="n">
-        <v>-7.872935</v>
-      </c>
-      <c r="H190" t="n">
         <v>110.241872</v>
       </c>
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr">
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+PT.Bayu+Kembar+Pratama+Tuksono+Sentolo+Kulon+Progo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af941be1b0cfb:0x67933cc8f11dfb3d!8m2!3d-7.8729349!4d110.2418724!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pc2sq7vt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7546,25 +7352,24 @@
           <t>0831-4519-8802</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F191" t="n">
-        <v>4.5</v>
+        <v>-7.892377</v>
       </c>
       <c r="G191" t="n">
-        <v>-7.892377</v>
-      </c>
-      <c r="H191" t="n">
         <v>110.270092</v>
       </c>
-      <c r="I191" t="b">
-        <v>0</v>
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pom+Mini+Ridho+Mulya/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7affb14347ffcf:0x4d6719bbc3c1867!8m2!3d-7.8923768!4d110.2700919!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qmx59glm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J191" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pom+Mini+Ridho+Mulya/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7affb14347ffcf:0x4d6719bbc3c1867!8m2!3d-7.8923768!4d110.2700919!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qmx59glm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K191" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -7583,25 +7388,24 @@
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="E192" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F192" t="n">
-        <v>4.8</v>
+        <v>-7.886265</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.886265</v>
-      </c>
-      <c r="H192" t="n">
         <v>110.063264</v>
       </c>
-      <c r="I192" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr">
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mini+SPBU/@-7.8862648,109.7748733,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae57c01fc1b93:0x64f31fb0d6b9d6b!8m2!3d-7.8862648!4d110.0632644!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l0103g1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7616,25 +7420,24 @@
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="E193" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F193" t="n">
-        <v>4.4</v>
+        <v>-7.889838</v>
       </c>
       <c r="G193" t="n">
-        <v>-7.889838</v>
-      </c>
-      <c r="H193" t="n">
         <v>110.099328</v>
       </c>
-      <c r="I193" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr">
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.556.10+TEMON/@-7.8898375,109.810937,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae578886e730d:0xf7fd661378dd7dc1!8m2!3d-7.8898375!4d110.0993281!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11t82jh9s1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7649,25 +7452,24 @@
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>5</v>
+      </c>
       <c r="F194" t="n">
-        <v>5</v>
+        <v>-7.66532</v>
       </c>
       <c r="G194" t="n">
-        <v>-7.66532</v>
-      </c>
-      <c r="H194" t="n">
         <v>110.166819</v>
       </c>
-      <c r="I194" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr">
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+SMK+KUNCUP/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3728f2e8505:0xe5f78541fed6f29c!8m2!3d-7.6653205!4d110.1668185!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j2j2nrgc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7686,25 +7488,24 @@
           <t>0822-4322-4895</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>5</v>
+      </c>
       <c r="F195" t="n">
-        <v>5</v>
+        <v>-7.771327</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.771327</v>
-      </c>
-      <c r="H195" t="n">
         <v>110.184431</v>
       </c>
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr">
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+dan+Toko+Kembar/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af12230ab3e71:0x1ed9a659fad875!8m2!3d-7.771327!4d110.184431!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tjmqx4xt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7719,25 +7520,24 @@
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>4</v>
+      </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>-7.897871</v>
       </c>
       <c r="G196" t="n">
-        <v>-7.897871</v>
-      </c>
-      <c r="H196" t="n">
         <v>110.178626</v>
       </c>
-      <c r="I196" t="b">
-        <v>0</v>
+      <c r="H196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+cerme+Kulon+progo/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd48e2426187:0x8bae3378b6c68861!8m2!3d-7.8978714!4d110.178626!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11np7kyw22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J196" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+cerme+Kulon+progo/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd48e2426187:0x8bae3378b6c68861!8m2!3d-7.8978714!4d110.178626!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11np7kyw22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K196" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -7757,22 +7557,21 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="n">
+        <v>-7.698241</v>
+      </c>
       <c r="G197" t="n">
-        <v>-7.698241</v>
-      </c>
-      <c r="H197" t="n">
         <v>110.19812</v>
       </c>
-      <c r="I197" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr">
+      <c r="H197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamini+Tukharjo/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3fad46e259d:0x6301f68e7afb28ff!8m2!3d-7.6982413!4d110.1981202!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j9kjlfs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7787,25 +7586,24 @@
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F198" t="n">
-        <v>4.3</v>
+        <v>-7.863003</v>
       </c>
       <c r="G198" t="n">
-        <v>-7.863003</v>
-      </c>
-      <c r="H198" t="n">
         <v>110.211378</v>
       </c>
-      <c r="I198" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBE+Kosan+-+PT.+Lestari+Pelita+Graha/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbc62145e6d1:0xfcd9716f8348016b!8m2!3d-7.8630031!4d110.2113779!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h0x9ydt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7828,25 +7626,24 @@
           <t>(021) 8511753</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr"/>
+      <c r="E199" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F199" t="n">
-        <v>4.3</v>
+        <v>-7.859887</v>
       </c>
       <c r="G199" t="n">
-        <v>-7.859887</v>
-      </c>
-      <c r="H199" t="n">
         <v>110.23287</v>
       </c>
-      <c r="I199" t="b">
-        <v>0</v>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mobil+Indostation+Salamrejo/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afba100baa4d7:0x60503725e275c8a3!8m2!3d-7.8598865!4d110.2328695!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11v3kc4v0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J199" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mobil+Indostation+Salamrejo/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afba100baa4d7:0x60503725e275c8a3!8m2!3d-7.8598865!4d110.2328695!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11v3kc4v0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -7865,25 +7662,24 @@
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F200" t="n">
-        <v>3.9</v>
+        <v>-7.795211</v>
       </c>
       <c r="G200" t="n">
-        <v>-7.795211</v>
-      </c>
-      <c r="H200" t="n">
         <v>110.193122</v>
       </c>
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr">
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+AU+Tanjungharjo+Nanggulan/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af14bac5174bd:0xc76b411d5b91ee43!8m2!3d-7.7952112!4d110.1931219!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11nnkw3q23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7898,25 +7694,24 @@
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
+      <c r="E201" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F201" t="n">
-        <v>4.8</v>
+        <v>-7.929567</v>
       </c>
       <c r="G201" t="n">
-        <v>-7.929567</v>
-      </c>
-      <c r="H201" t="n">
         <v>110.198071</v>
       </c>
-      <c r="I201" t="b">
-        <v>0</v>
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Eceran+BBM/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afdad1eea7269:0x4c70290a8cebf2ef!8m2!3d-7.9295671!4d110.1980709!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gcmp06lw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J201" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Eceran+BBM/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afdad1eea7269:0x4c70290a8cebf2ef!8m2!3d-7.9295671!4d110.1980709!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gcmp06lw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K201" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -7935,25 +7730,24 @@
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F202" t="n">
-        <v>4.8</v>
+        <v>-7.802575</v>
       </c>
       <c r="G202" t="n">
-        <v>-7.802575</v>
-      </c>
-      <c r="H202" t="n">
         <v>110.162214</v>
       </c>
-      <c r="I202" t="b">
-        <v>0</v>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+Pendem+Sidomulyo/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af15ae1283ebd:0xc0ce490e5847dbef!8m2!3d-7.8025748!4d110.1622136!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgc0b9nq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J202" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+Pendem+Sidomulyo/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af15ae1283ebd:0xc0ce490e5847dbef!8m2!3d-7.8025748!4d110.1622136!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgc0b9nq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -7972,25 +7766,24 @@
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F203" t="n">
-        <v>3.9</v>
+        <v>-7.771275</v>
       </c>
       <c r="G203" t="n">
-        <v>-7.771275</v>
-      </c>
-      <c r="H203" t="n">
         <v>110.184146</v>
       </c>
-      <c r="I203" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/3DPOM+MINI+Sribit/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af056e4a8171f:0x88f41400bf9da106!8m2!3d-7.7712754!4d110.1841459!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fzfc0d4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8009,25 +7802,24 @@
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F204" t="n">
-        <v>4.3</v>
+        <v>-7.807298</v>
       </c>
       <c r="G204" t="n">
-        <v>-7.807298</v>
-      </c>
-      <c r="H204" t="n">
         <v>110.291018</v>
       </c>
-      <c r="I204" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.16+Balecatur/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af82ef69a9485:0x354f6a3f8143339b!8m2!3d-7.807298!4d110.2910178!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pztxp8nm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8046,25 +7838,24 @@
           <t>0819-0357-5601</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>5</v>
+      </c>
       <c r="F205" t="n">
-        <v>5</v>
+        <v>-7.922034</v>
       </c>
       <c r="G205" t="n">
-        <v>-7.922034</v>
-      </c>
-      <c r="H205" t="n">
         <v>110.147375</v>
       </c>
-      <c r="I205" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Bensin+Pertamini/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd7961ca0943:0xbe25cbf21e5a3b02!8m2!3d-7.9220343!4d110.1473745!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fw8yf6rr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8079,25 +7870,24 @@
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="E206" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F206" t="n">
-        <v>4.5</v>
+        <v>-7.665487</v>
       </c>
       <c r="G206" t="n">
-        <v>-7.665487</v>
-      </c>
-      <c r="H206" t="n">
         <v>110.148775</v>
       </c>
-      <c r="I206" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr">
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+MINI+POM+5758/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3b53f6f1d1d:0xc256d20bce6cd846!8m2!3d-7.665487!4d110.1487746!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j7hl6bfx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8112,25 +7902,24 @@
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>5</v>
+      </c>
       <c r="F207" t="n">
-        <v>5</v>
+        <v>-7.922172</v>
       </c>
       <c r="G207" t="n">
-        <v>-7.922172</v>
-      </c>
-      <c r="H207" t="n">
         <v>110.135091</v>
       </c>
-      <c r="I207" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr">
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTAMINI+BAROKAH/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae3e62faf3e5f:0x1ac76698f26594ae!8m2!3d-7.922172!4d110.135091!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fst1yfc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8145,25 +7934,24 @@
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F208" t="n">
-        <v>4.5</v>
+        <v>-7.7208</v>
       </c>
       <c r="G208" t="n">
-        <v>-7.7208</v>
-      </c>
-      <c r="H208" t="n">
         <v>110.23931</v>
       </c>
-      <c r="I208" t="b">
-        <v>0</v>
+      <c r="H208" t="b">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+JAYA/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af7b821e2c1f5:0xd7694d7d9121ca5b!8m2!3d-7.7208!4d110.2393103!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qg4lrnyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J208" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+JAYA/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af7b821e2c1f5:0xd7694d7d9121ca5b!8m2!3d-7.7208!4d110.2393103!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qg4lrnyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K208" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -8186,25 +7974,24 @@
           <t>0821-1741-1448</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
+      <c r="E209" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F209" t="n">
-        <v>4.6</v>
+        <v>-7.876057</v>
       </c>
       <c r="G209" t="n">
-        <v>-7.876057</v>
-      </c>
-      <c r="H209" t="n">
         <v>110.007501</v>
       </c>
-      <c r="I209" t="b">
-        <v>0</v>
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Jogoresan+Pertamina+44.541.15/@-7.8760571,109.7191102,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae71484479b43:0x99bc17061bdaa313!8m2!3d-7.8760571!4d110.0075013!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qh7n7sh9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J209" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Jogoresan+Pertamina+44.541.15/@-7.8760571,109.7191102,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae71484479b43:0x99bc17061bdaa313!8m2!3d-7.8760571!4d110.0075013!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qh7n7sh9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K209" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -8227,25 +8014,24 @@
           <t>0888-8888-8696</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>5</v>
+      </c>
       <c r="F210" t="n">
-        <v>5</v>
+        <v>-7.868317</v>
       </c>
       <c r="G210" t="n">
-        <v>-7.868317</v>
-      </c>
-      <c r="H210" t="n">
         <v>110.059441</v>
       </c>
-      <c r="I210" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr">
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Pertamini+Dan+Gas+Elpiji/@-7.8760571,109.7191102,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae5c030050a45:0x6e3b5f4c3839c205!8m2!3d-7.8683175!4d110.0594409!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h2tlqgtl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8260,25 +8046,24 @@
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>5</v>
+      </c>
       <c r="F211" t="n">
-        <v>5</v>
+        <v>-7.83177</v>
       </c>
       <c r="G211" t="n">
-        <v>-7.83177</v>
-      </c>
-      <c r="H211" t="n">
         <v>110.218614</v>
       </c>
-      <c r="I211" t="b">
-        <v>0</v>
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pangkalan+Kamsi+Sentolo+Kidul/@-7.950829,109.9257029,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb8ba7937199:0x2cc9ef65ae61fc5f!8m2!3d-7.8317697!4d110.2186143!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgw_tgvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J211" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pangkalan+Kamsi+Sentolo+Kidul/@-7.950829,109.9257029,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb8ba7937199:0x2cc9ef65ae61fc5f!8m2!3d-7.8317697!4d110.2186143!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgw_tgvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K211" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -8301,25 +8086,24 @@
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
+      <c r="E212" t="n">
+        <v>4</v>
+      </c>
       <c r="F212" t="n">
-        <v>4</v>
+        <v>-7.71319</v>
       </c>
       <c r="G212" t="n">
-        <v>-7.71319</v>
-      </c>
-      <c r="H212" t="n">
         <v>110.342977</v>
       </c>
-      <c r="I212" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr">
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.27/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5f4d622b346f:0xa869a60e1c50d288!8m2!3d-7.7131898!4d110.3429766!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzt7h0y2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8334,21 +8118,20 @@
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="n">
+      <c r="E213" t="n">
         <v>4.2</v>
       </c>
+      <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr">
+      <c r="H213" t="b">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POM+BENSIN+TLOGOADI/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58a25fba98ab:0x22f81d2440214b5c!8m2!3d-7.7344738!4d110.3396745!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11c0vph13w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8363,25 +8146,24 @@
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F214" t="n">
-        <v>4.1</v>
+        <v>-7.734297</v>
       </c>
       <c r="G214" t="n">
-        <v>-7.734297</v>
-      </c>
-      <c r="H214" t="n">
         <v>110.339661</v>
       </c>
-      <c r="I214" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr">
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Getas/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a58a24415cf47:0xec79b83f56586c63!8m2!3d-7.7342969!4d110.3396613!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cp23l_qj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8404,25 +8186,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F215" t="n">
-        <v>4.3</v>
+        <v>-7.780049</v>
       </c>
       <c r="G215" t="n">
-        <v>-7.780049</v>
-      </c>
-      <c r="H215" t="n">
         <v>110.343282</v>
       </c>
-      <c r="I215" t="b">
-        <v>0</v>
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina+Petrol+Station+of+Banyuraden/@-7.7800494,110.2711844,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5812736bc2d7:0x6de1f6c9cd3ad910!8m2!3d-7.7800494!4d110.3432822!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzryyk9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J215" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina+Petrol+Station+of+Banyuraden/@-7.7800494,110.2711844,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5812736bc2d7:0x6de1f6c9cd3ad910!8m2!3d-7.7800494!4d110.3432822!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzryyk9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K215" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -8441,25 +8222,24 @@
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F216" t="n">
-        <v>4.2</v>
+        <v>-7.736196</v>
       </c>
       <c r="G216" t="n">
-        <v>-7.736196</v>
-      </c>
-      <c r="H216" t="n">
         <v>110.39456</v>
       </c>
-      <c r="I216" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr">
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.05+Prujakan/@-7.7361962,110.322462,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5916ede03da5:0x6ae6e622f8095f07!8m2!3d-7.7361962!4d110.3945598!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b61qzdmb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8478,25 +8258,24 @@
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F217" t="n">
-        <v>4.2</v>
+        <v>-7.759885</v>
       </c>
       <c r="G217" t="n">
-        <v>-7.759885</v>
-      </c>
-      <c r="H217" t="n">
         <v>110.394773</v>
       </c>
-      <c r="I217" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr">
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Gejayan+44.555.03/@-7.7361962,110.322462,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59a43f8b245f:0x77adef82ade273f7!8m2!3d-7.7598847!4d110.3947727!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11dxk75pbd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8519,25 +8298,24 @@
           <t>(0274) 4546499</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F218" t="n">
-        <v>4.4</v>
+        <v>-7.758202</v>
       </c>
       <c r="G218" t="n">
-        <v>-7.758202</v>
-      </c>
-      <c r="H218" t="n">
         <v>110.320261</v>
       </c>
-      <c r="I218" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr">
+      <c r="H218" t="b">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.22/@-7.7582022,110.2481629,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af7d2bec54bb3:0xb0e209d8928e99e1!8m2!3d-7.7582022!4d110.3202607!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzvfqvj0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8560,25 +8338,24 @@
           <t>(0274) 882989</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
+      <c r="E219" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F219" t="n">
-        <v>4.3</v>
+        <v>-7.710803</v>
       </c>
       <c r="G219" t="n">
-        <v>-7.710803</v>
-      </c>
-      <c r="H219" t="n">
         <v>110.40923</v>
       </c>
-      <c r="I219" t="b">
-        <v>0</v>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.18+Pedak/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59381329b2d9:0x7303cae4280e2e10!8m2!3d-7.7108032!4d110.4092302!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b73xrt3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J219" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.18+Pedak/@-7.7049775,110.3590863,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a59381329b2d9:0x7303cae4280e2e10!8m2!3d-7.7108032!4d110.4092302!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11b73xrt3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K219" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -8601,25 +8378,24 @@
           <t>(0274) 383608</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F220" t="n">
-        <v>4.5</v>
+        <v>-7.802809</v>
       </c>
       <c r="G220" t="n">
-        <v>-7.802809</v>
-      </c>
-      <c r="H220" t="n">
         <v>110.313175</v>
       </c>
-      <c r="I220" t="b">
-        <v>0</v>
+      <c r="H220" t="b">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Ambarketawang+Pertamina+44.552.07/@-7.8028087,110.2410774,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af81c1dd22993:0x9720d384451af0b9!8m2!3d-7.8028087!4d110.3131752!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpm2756?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J220" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Ambarketawang+Pertamina+44.552.07/@-7.8028087,110.2410774,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af81c1dd22993:0x9720d384451af0b9!8m2!3d-7.8028087!4d110.3131752!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzpm2756?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K220" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -8638,25 +8414,24 @@
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="E221" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F221" t="n">
-        <v>4.2</v>
+        <v>-7.683974</v>
       </c>
       <c r="G221" t="n">
-        <v>-7.683974</v>
-      </c>
-      <c r="H221" t="n">
         <v>110.298763</v>
       </c>
-      <c r="I221" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr">
+      <c r="H221" t="b">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.555.23+Gendol/@-7.683974,110.2266656,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af5a4f9749989:0x7c47f7f67d9fff08!8m2!3d-7.683974!4d110.2987634!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bzrvmd79?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8671,25 +8446,24 @@
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F222" t="n">
-        <v>4.2</v>
+        <v>-7.7406</v>
       </c>
       <c r="G222" t="n">
-        <v>-7.7406</v>
-      </c>
-      <c r="H222" t="n">
         <v>110.433943</v>
       </c>
-      <c r="I222" t="b">
-        <v>0</v>
+      <c r="H222" t="b">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Wedomartani+44.555.20/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5bdbffffffff:0x28215766a13a8d53!8m2!3d-7.7406003!4d110.4339428!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv6l1sb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J222" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Wedomartani+44.555.20/@-7.7406003,110.361845,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5bdbffffffff:0x28215766a13a8d53!8m2!3d-7.7406003!4d110.4339428!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv6l1sb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K222" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -8712,25 +8486,24 @@
           <t>0812-7360-1240</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F223" t="n">
-        <v>4.5</v>
+        <v>-7.689502</v>
       </c>
       <c r="G223" t="n">
-        <v>-7.689502</v>
-      </c>
-      <c r="H223" t="n">
         <v>110.461759</v>
       </c>
-      <c r="I223" t="b">
-        <v>0</v>
+      <c r="H223" t="b">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Bimomartani+Pertamina+44.555.36/@-7.6895022,110.3896614,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5dcaa49f14ed:0xcf4b113553a31699!8m2!3d-7.6895022!4d110.4617592!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pb0vx0jl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J223" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Bimomartani+Pertamina+44.555.36/@-7.6895022,110.3896614,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5dcaa49f14ed:0xcf4b113553a31699!8m2!3d-7.6895022!4d110.4617592!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11pb0vx0jl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K223" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -8753,25 +8526,24 @@
           <t>0813-1006-6690</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F224" t="n">
-        <v>4.7</v>
+        <v>-7.710171</v>
       </c>
       <c r="G224" t="n">
-        <v>-7.710171</v>
-      </c>
-      <c r="H224" t="n">
         <v>110.306391</v>
       </c>
-      <c r="I224" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr">
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Pertashop+Margoagung+4P.55505/@-7.710171,110.2342928,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af52b39e6b147:0xfeda95753565e274!8m2!3d-7.710171!4d110.3063906!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11q95j_9dr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8794,25 +8566,24 @@
           <t>0851-0126-0444</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F225" t="n">
-        <v>4.5</v>
+        <v>-7.661055</v>
       </c>
       <c r="G225" t="n">
-        <v>-7.661055</v>
-      </c>
-      <c r="H225" t="n">
         <v>110.40721</v>
       </c>
-      <c r="I225" t="b">
-        <v>0</v>
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pakem+Mangunan+Pertamina+44.555.07/@-7.6610553,110.3351121,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5e44692e5c23:0x5666c1ed45006d7a!8m2!3d-7.6610553!4d110.4072099!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs0pfjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J225" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pakem+Mangunan+Pertamina+44.555.07/@-7.6610553,110.3351121,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a5e44692e5c23:0x5666c1ed45006d7a!8m2!3d-7.6610553!4d110.4072099!15sCgtTUEJVIFNsZW1hbloNIgtzcGJ1IHNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzs0pfjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -8831,25 +8602,24 @@
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
+      <c r="E226" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F226" t="n">
-        <v>3.9</v>
+        <v>-7.766302</v>
       </c>
       <c r="G226" t="n">
-        <v>-7.766302</v>
-      </c>
-      <c r="H226" t="n">
         <v>110.289454</v>
       </c>
-      <c r="I226" t="b">
-        <v>0</v>
+      <c r="H226" t="b">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+GODEAN/@-7.7663017,110.2173563,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af735b9020285:0xbb5c87fb5bfa2a!8m2!3d-7.7663017!4d110.2894541!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11my18j2hj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J226" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+GODEAN/@-7.7663017,110.2173563,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7af735b9020285:0xbb5c87fb5bfa2a!8m2!3d-7.7663017!4d110.2894541!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11my18j2hj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K226" t="inlineStr">
         <is>
           <t>51 menit lalu</t>
         </is>
@@ -8868,25 +8638,24 @@
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F227" t="n">
-        <v>3.6</v>
+        <v>-7.723532</v>
       </c>
       <c r="G227" t="n">
-        <v>-7.723532</v>
-      </c>
-      <c r="H227" t="n">
         <v>110.401432</v>
       </c>
-      <c r="I227" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="H227" t="b">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Jl+Kaliurang/@-7.7235317,110.3293342,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a593435487d61:0x3209d8aead87780f!8m2!3d-7.7235317!4d110.401432!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fjxtcklv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8905,25 +8674,24 @@
           <t>(0274) 2853775</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F228" t="n">
-        <v>4.5</v>
+        <v>-7.80486</v>
       </c>
       <c r="G228" t="n">
-        <v>-7.80486</v>
-      </c>
-      <c r="H228" t="n">
         <v>110.446056</v>
       </c>
-      <c r="I228" t="b">
-        <v>0</v>
+      <c r="H228" t="b">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Berbah+44.555.34/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a515219362f4d:0x3d94ad567d31affb!8m2!3d-7.8048601!4d110.4460555!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fkc_y4tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J228" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Berbah+44.555.34/@-7.7612724,110.4048406,13z/data=!4m11!1m3!2m2!1sSPBU+Sleman!6e2!3m6!1s0x2e7a515219362f4d:0x3d94ad567d31affb!8m2!3d-7.8048601!4d110.4460555!15sCgtTUEJVIFNsZW1hbpIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fkc_y4tp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
